--- a/500all/speech_level/speeches_CHRG-114hhrg95507.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95507.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing to order this morning, and certainly want to thank our panel of distinguished witnesses. I am not going to introduce them at this time, but when you--right before your opening statements, I will introduce each one of you, and each one of you will be given 5 minutes to make your opening statement, and then we will have an opportunity to ask questions.    Today's hearing is entitled ``The 21st Century Electricity Challenge: Ensuring a Secure, Reliable, and Modern Electricity System.'' And I recognize myself for 5 minutes, I see I am already started on the clock.    As we all know, the U.S. was the first nation to electrify, and our system of generation, transmission, distribution, and related communication remains the best in the world. Nonetheless, new challenges are emerging, as are opportunities to modernize and improve the electric grid. The challenges are significant. Much of our grid is outdated. In fact, I have heard--I think I remember in someone's statement, 70 percent of our grid is over 25 years old. Coal-fired generation facilities are shutting down at an alarming rate, reserve margins are inadequate in several regions, intermittent and remote renewable capacity is coming online, and cyber threats pose a growing concern. Those are some of the challenges, but the--we have many opportunities also. Utilities are planning to invest more than $60 billion in transmission infrastructure through 2024 to modernize the Nation's electric grid, while abundant fuel resources and advanced generation, storage, and distribution management technologies can help modernize and diversify the Nation's power portfolio. Further, big data energy analytics and new information technologies offer a diverse suite of novel products and services that can identify and mitigate inefficiencies in the electricity supply chain, while helping utilities meet changing consumer expectations.    So we have many opportunities, and that is why we want you distinguished gentlemen here today to give us some insights on opportunities for the future.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412189</t>
   </si>
   <si>
-    <t>Jerry McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. Well, thank you, Mr. Chairman.    Hey, this is a really exciting hearing. It is an area I care a lot about. You know, the American grid is one of the great engineering challenges of the--great engineering achievements of the 20th century. It has provided us reliable electric power, it has helped our industry grow, and yet at today's hearing we are going to get a look at what the 21st century grid might look like, but also what the transition between where we are today and what the 21st century grid is going to look like. It is going to be an opportunity and some very big challenges.    Some of the factors that I want to bring to our attention are, coal is still our number one energy producer. Produces about 38 percent of our power. And to the chagrin of some of our colleagues, that number is decreasing over time. New--natural gas is our number two energy--electric energy supplier, and that is growing rapidly. There are some challenges with natural gas. We have the distribution challenge, especially in New England States, and--but the price of natural gas is going down, or is low now because of all the abundance of natural gas. So it is a real opportunity for us. Nuclear is number three, and I think nuclear is kind of stagnant right now. That may change over time. And fourth, renewable energies. It is growing rapidly, but it is only 13 percent of our capacity, and that includes hydro. So we have--with renewable energy, there is cost competitiveness. We can produce renewable energy pretty cheaply now, but we can't dispatch it. It is not going to be there necessarily when we need it, so there needs to be some account taken to that and--when we integrate renewables into the grid. But if you look at what is happening, California is going to require 33 percent nuclear power by 2020, so we have to rise up for this challenge.    We also have the specter of climate change sitting there in front of us. It is going to require us to reduce fossil fuels, but it is also going to require us to increase efficiency. We have a need to make our grid more resilient. We are seeing that with our bigger storms now. We also have physical and cybersecurity. We want to make sure that our grid is strong, is safe. If there are physical attacks, if there are cyber attacks, if there are storms, if there are earthquakes, whatever the--nature throws at us or whatever our fellow human beings throw at us, we have to be able to maintain our grid, so this is a pretty big challenge.    There are big opportunities. I just want to tick off some technology. Some of these I don't even understand myself. We have the automated circuit breakers and feeder switches. That is going to allow us to switch problems, we can--it is just like a transistor in a radio. I mean it is going to allow us to switch back and forth, and that gives us quite a bit of flexibility. There are mapping systems that will allow us to stop grid problems from spreading from one part of the Nation, and one sector to another. We have load management tools like megawatts that are being adopted in San Francisco. We also have smart meter technology, which I helped develop for a period of years in California.    So there is a lot of technology out there, but a big opportunity is if we can provide cheap power for our customers, then manufacturing is going to be able to continue to grow and thrive in this country, and without it, we are going to be hamstrung. So this is a big challenge for Congress. It is going to require continued investment and commitment in Congress and in industry. We need to understand the big picture challenge before we do anything drastic here in Congress. We need to understand the engineering challenges. We need to put money out there so that the engineering challenges can be met. We need to incentivize that. We need to make the investment, and that means investment here in Washington, but it means also investment in our States, and it means investment by private investors. And how are we going to invest--incentivize private investors in grid innovation and grid technology, and development and grid infrastructure development if they are not sure they are going to get their money back? So we have to be able to figure that out. So this is part of the big picture challenge.    But my colleague, Renee Ellmers, and I have started the Grid Innovation Caucus. That is giving us here in Congress several members that are interested in this area an opportunity to talk about some of these issues. So--and think about the big picture.    I do have a story from my past when I developed wind energy technology, I started in the business in about 1980 when the industry was just at the beginning. And, you know, we went out there and we got an investment from some folks out there. We designed a wind turbine from a plain piece of paper. It was a wonderful experience. We put it up in the hills of New Hampshire, turned it on, had all the investors come out, turned it on, and then things started turning, the blades all flew off and everyone had to run for cover. But, you know, the investors stuck with us, and year after year we put a little bit more understanding in the blade roots, in the foundations, and the transmission, and in all engineering parts of that machine, and how, because of that kind of work, wind energy is very cost-effective, it is growing very rapidly. So you have to make the investment, you have to stick with it, and if you do, you get rewarded.    So that will be my opening statement. Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -76,81 +70,54 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman, for holding this hearing on the future of the grid. I don't know if I can be as energized as Mr. McNerney, but I did notice how energized you were and I was happy to see it.    The National Academy of Sciences has referred to the U.S. electricity grid as the greatest engineering achievement of the 20th century because it delivers critical energy services to consumers in an instantaneous, affordable and dependable manner. In fact, as a society, we have come to expect that every time we flip the switch in a dark room, light will appear. But our grid is changing as we speak. There are ever-growing demands on the grid to power our new technologies, to accept new forms of generation, while at the same time conventional attacks, cyber attacks, climate change, and other new threats require the grid to become more resilient. And the grid is now the subject of almost constant innovation and entrepreneurship as well as--as many of our witnesses are going to attest. How we unleash that innovative spirit and at the same time ensure overall system reliability is the challenge for the grid of the future.    Fortunately, advanced technologies exist to address these challenges, with substantial benefits for both the electricity sector and, in most cases, consumers. These new technologies are working smarter and promise electricity generation and delivery that is more efficient, economic and environmentally responsive. And while this transition will not be quick or easy, our witnesses today make clear that the move towards smart grid technology is already here.    Today, you can already find this technology deployed around the Nation. You can see it in the deployment of smart meters and other technologies that facilitate greater energy efficiency and cost savings, as well as in the deployment of solar and other distributed generation. These technologies will also help us move forward in the fight against climate change, providing new ways to reduce greenhouse gases emissions, while at the same time enhancing overall system resiliency and reliability.    In my home State of New Jersey, you can also see the deployment of smart grid technologies in the work DOE has done to set up a microgrid to prevent transit service outages in northern New Jersey, like the one we experienced during Super Storm Sandy. And while the movement to these new technologies is important in many cases, its near-turn adoption is not inevitable, nor is it necessarily a panacea for all the problems we face. And we will need to work with our State and local counterparts, including State regulators, to develop workable solutions. For instances, while a microgrid may help preserve power for a portion of a community during an extreme weather event, policymakers will be the ones tasked with deciding who gets the benefits of that power, and who pays for establishing the infrastructure. Similarly, the rate of adoption for many of these new technologies often depends on the incentives put in place by policymakers. For example, real time smart metering can provide consumers with critical information about their energy use during hours of peak demand, yet without the proper structures in place to encourage residential or commercial customers to use energy during off-peak hours, there is little motivation for someone to charge their electric vehicle at night instead of in the morning, or to alter their business plans to ensure others can consume electricity during the day.    And so policy questions still exist, but there is little doubt that adopting these new technologies to move us towards a smarter grid could spur benefits for consumers, our economy and the environment, and the witnesses before us today can help us navigate these obstacles to quickly realize the benefits of these technologies in a cost-effective manner. So I look forward to hearing your views.    I would like to yield the remainder of my time to the gentleman from Texas, Mr. Green.</t>
   </si>
   <si>
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank my colleague for yielding to me--our ranking member colleague. I want to thank all our panelists for being here today, and I look forward to discussing this critical component of our economy.    The electrical system and grid are technological wonders, and the--it is the bedrock of our industrial and commercial and domestic way of life. When folks turn on the switch, they never question whether America's power sector will perform.    In the 20th century, we expanded rapidly, constructing lines and establishing functioning markets. The complexity and vastness of the U.S. utility transmission and distribution system is unmatched across the globe.    In the 21st century, we face challenges and opportunities from a changing marketplace. Traditional utilities face new challenge because the integration of renewable resources, implementing the new environmental regulations built on the rapid expansion of cheap natural gas. Transmission and distribution companies are looking at new dynamics of distributor generation.    Finally, consumers are increasingly savvy and informed about consumption management and household efficiencies. As legislatures, we must provide these constituents the tools required to meet the challenges and capitalize on the opportunities of the new marketplace. Today, it is my hope we can elicit some information that would help us better understand the rapidly changing atmosphere, and assist us in crafting solutions so as to remain innovative, flexible, but 100 percent reliable.    And I yield back my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. The gentleman yields back. And that concludes the opening statements.    So now I would like to introduce our panel. And once again, we thank all of you for joining us today, and we look forward to your testimony.    Our first witness this morning is Mr. Tom Siebel who is chairman and CEO of C3 Energy, also one of the founders of Oracle.    Each one of you will be given 5 minutes, then the little red light will come on when 5 minutes is up, but we won't go strictly by that red light. But, Mr. Siebel, thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Siebel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Siebel. Good morning. Mr. Chairman, thank you for the opportunity.    I am here from Silicon Valley, and I have spent the last 4 decades in the information technology business, and we have been working for the better part of the last decade to think about the problem of applying the state-of-the-art of information technology and communication technology to the value chain associated with power generation, transmission, distribution, metering, and consumption. And if we are to look at this value chain, it would be--today, it would be largely recognizable by Thomas Edison, because we are dealing with late 19th century and early 20th century technologies, where at one end of the value chain we are boiling water and spinning a turbine, OK, we are rotating a magnet within a coil, creating a voltage, stepping up the voltage to, you know, higher voltage, transmitting it over long distances at high voltage, medium distances at medium voltage. It goes to a meter and then to the consumer. This is pretty much what it looks like. And it works great until it breaks. OK, and then when it breaks, whoever, Baltimore Gas and Electric or Constellation Energy or Pacific Gas and Electric, sends trucks out with people with volt meters to climb telephone poles and go down manhole covers, to find boxes that don't conduct electricity, and they keep replacing boxes until the lights go back on. And this is pretty much how it works.    Now, this infrastructure--these--the way that utilities are operated is then tend to run these businesses of generation, transmission, distribution, metering, customer care and billing, as separate business units, and as separate business units they have these separate enterprise information systems that have been supplied over the years by companies like Oracle and General Electric and Siemens and others. There are lots of reasons we can get into some other time why these enterprise information systems don't want to communicate with one another. It makes it very difficult to share information, but let it be said that, you know, this has all been kind of driven by Moore's law. Now, this decade, worldwide, this infrastructure is being upgraded so that all the devices are becoming remotely machine-addressable, so we can remotely sense their state. The most common being the smart meter. So we don't have to send a truck out to read it once a month, we can read it once a minute or once every 15 minutes. But what is significant is not the smart meter, the entire value chain is being sensored, from the vibration sensor on the nuclear reactor to the thermostat, the variable speed fan at Wal-Mart, OK, the single phasers, the step transformers, the stepdown transformers, and the substations. So as this becomes sensored, this begins to look like a fully sensored--basically, a fully connected sensor network. A guy named Bob Metcalfe out of Xerox PARC, he invented something called Ethernet, OK, and he coined something called Metcalfe's law. So the power of that network is the function of the square of the number of nodes that are connected.    So when this is--the amount that is being invested, I don't know if I mentioned this, in upgrading this network worldwide this decade is $2 trillion. So this is the largest and most complex machine every built. The amount being invested in the U.S. this decade upgrading this infrastructure is $1 trillion. So as we do this, if we read a meter every 15 minutes, it is being read 32,000 signals a year. If we read it once a month, it is 12 signals a year. That is four orders of magnitude. Actually, we are increasing the amount of data by six orders of magnitude. So we have massive amounts of data that is being collected, and so what we can do now is we can apply the sciences of big data, cloud-scale computing, analytics, machine learning, and these new social human-computer interaction models to dramatically, you know, to optimize the entire value chain to, you know, if we balance--it reduces the amount of fuel that we need to generate by a percent. OK, if we use these technologies for predictive maintenance, we can replace devices before they fail, dramatically increasing safety, increasing reliability, we can, you know, increase the security infrastructure, and by the way, we can reduce the environmental consequences of the value chain by, say, order of 50 percent.    So this is what we are doing today all over the world. I would say that Europe is probably ahead of the U.S. as it relates to this today. We are doing this now, and now putting this in the perspective of a company based in Rome, they have 67 million meters in 40 countries, and so they are a 100-billion-euro company. It is a utility roughly the size of the U.S. market. And there, we are aggregating I think 7 trillion rows of data into an 800 terabyte cloud image. We process these data at the rate of 800,000 transactions per second, OK. Apply machine learning to optimize the value chain and the economic benefit to do this across the world is 6.3 billion euros a year. We are doing this at Exelon. The economic benefit to them, $2.7 billion. This is the economic benefit to their consumers. Baltimore Gas and Electric, Pacific Gas and Electric, Socal Edison, Commonwealth Edison, we are doing--GDF Suez, so we are doing this all around the world today. This is what will make the smart grids smart, is the information technology, the ability to apply big data, analytics machine learning, and new human-computer interaction models. And the economic, social and environmental benefits are significant. So this is the exercise upon which we have been engaged, and it is fascinatingly difficult and fascinatingly exciting.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Well, thank you very much.    And our next witness is Mr. Dean Kamen, who is the Founder and President, inventor and--also, but he is the Founder and President of DEKA Research and Development Corporation. And, Mr. Kamen, thank you very much for joining us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Kamen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kamen. Thank you, Mr. Chairman, and I think everybody here knows we are not here to talk about whether there will be disruptive change in the grid, but how it is going to happen and hopefully how to make it happen in the best possible way.    Though we are here to talk about energy, I am a technology guy and I thought a very quick review, and it will be a very quick review, of a few other industries that were dramatically transformed at the intersection of new technologies that were properly embraced to take over from old systems that suddenly seemed inefficient and terrible. So as an example, I will give you computing. We all grew up, I think, with big computers that sat some place and, you know, the average kid today doesn't know about what Mr. Watson and his company were about, they have tablets and cell phones, and they changed an industry and they wiped out an old infrastructure. There were interestingly three major infrastructures that were built in the 1880s--were established in the 1880s; photography, communications, and energy.    So quickly, looking at this one, Alexander Bell in the 1880s decided we can let everybody talk to everybody, all you needed was a wire from your ear to anybody else's ear. And it took about 100 years to build up that massive infrastructure. Then the technology came along, and that was really neat. Most kids don't know that a house has a phone. You have a phone. And technology like wireless and cellular and fiber optics have just transformed the communication industry, I think we would all agree, for the better.    Photograph, again, in the 1880s it was a wonderful thing. We all remember our Kodak moments. We remember we could get that stuff to actually develop in only one day. You ask the average kid for a selfie today, they don't know what film is, and the Kodak moment is--Kodak is history, it is a memory. So it is because technologies came along that were just breathtakingly better.    What about energy. That is what we are here to talk about. Well, in the 1880s there was this guy Edison and Tesla, and they gave us big centralized plans, like Ma Bell, photography, what do we know about that great model that we have already heard is from virtually everybody out there and the first speaker, it is 150-year-old architecture. What do we know about it? Is it ready for disruption? Well, it is old, it is inefficient, it is unreliable, it is expensive, and it is dirty.    Quick facts about what the grid is today. We have about 1 terawatt, 1,000 gigawatts, of production capacity at an average of $1 a watt to produce that. That is $1 trillion in generation assets. Well, more than 50 percent of that stuff is 30 years old, and if you only replace the stuff that is that old at $1 a watt, it is $500 billion. Once you make that energy, you have to move it. And you just heard, at high voltage, transmission lines, they cost about $1 million a mile, and oops, sometimes they are not quite what we would like them to be. And 70 percent of those things are 25 years old or more, and there are 280,000 miles of that high voltage stuff, so if you replace the really old stuff, it is another $200 billion. Then you have the low voltage stuff in all your neighborhoods. Wires hanging on wooden poles. What could possibly go wrong? So those things are a real deal, they are only $140,000 a mile, and there are 2.2 million miles of that stuff and 50 percent of that is at least 30 years old. And if you just replace the stuff that old, it is another $150 billion. And then, of course, you have the annual capital cost of that infrastructure. Now, that is $90 billion is what we are spending in this country right now to keep that architecture operating, and we have all heard how critical it is, but by the way, that $90 billion, that is not one drop of oil or one pound of coal, that is just to keep that system up.    So is there a better, more efficient way to do to this industry what has happened to communications, for instance? I think so. Everybody loves solar panels, and I think you will hear from this whole panel, between solar panels, battery technology, wind technology, controls technology, megawatts, all of these things are going to change. The question is how do we catalyze them to work together instead of frustrate each other, both technically and in a regulatory environment.    Well, everybody I know loves solar panels. Very few people I know have put up enough solar panels that they have disconnected themselves from that grid that we all complain about. It is our lifeline. So how do you catalyze more people to do this? Well, the more you put those up without doing something else, you are actually hurting the grid because they add instability, unless you add good technology, and they lower the amount of power coming through the grid, but the models by which the grids are funded is by selling electricity. The more of this stuff you put up, it is a competitive perverse alternative to the grid. You have to do something that can catalyze this stuff to happen in a way that helps everybody, including the people supplying the power. So we said, why don't we make an appliance, like all the other appliances in a house, that might help. This appliance makes 10,000 watts of electricity. We call--it is a sterling thermal technology. It is about as quiet literally as your hot water heater or your furnace, and the ones that we have made now 20 of, and placed them with a great visionary partner, David Crane, the chairman of NRG, have already produced 300 million watt hours of power directly where it is needed in places where we can also use the waste heat because after all, it brings the same fuel as your hot water heater. 100 million of those things could produce as much power as the whole grid. I don't think we need to go that far, but is 100 million a lot? No. Americans have 140 million appliances bigger than this. Much more relevant, they have 117 million hot water heaters and 182 million furnaces, together that is 200 million appliances that use exactly the same infrastructure as us, except we will make your electricity and your heat. Where else could you put these things? This is why I think it can work to make the grid a great new future. Don't put them in the houses, put them out on those transformer pads. By the way, there were 40 million of those transformer pads sitting there now between the grid at that last stop and the user, and it is close enough to the user that we can still recover the heat, so we said put them out there, you lower the installation cost, you will make them easier to service, you will get higher efficiency, higher reliability, because houses can share them. Neighborhoods can start putting these things in under an intelligent control plan, and as you put a bunch of them near a set of houses, you don't need another one of those wooden poles with the wires draped through your trees. You put enough of those neighborhoods together, you don't need that substation. Over the next few years you, in a controlled way, get rid of enough substations, you start eliminating transmission lines, and finally you eliminate the power plants that aren't the efficient ones, and then America has a bright future.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Marvelous. Thank you, Mr. Kamen. We appreciate that.    Our next witness is Mr. Michael Atkinson, who is the President of Alstom Grid, Incorporated, who is testifying on behalf of GridWise Alliance. So you are recognized for 5 minutes, Mr. Atkinson.</t>
   </si>
   <si>
-    <t>Atkinson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Atkinson. Good morning, Chairman Whitfield, Ranking Member Rush, full committee Chairman Upton, and Ranking Member Pallone, Congressman McNerney, and distinguished members of this subcommittee. I am Michael Atkinson, President of Alstom Grid, Incorporated, and also I am here on behalf of the GridWise Alliance. I appreciate the opportunity to testify at today's hearing.    The U.S. electric system is undergoing a transformation unlike anything we have experienced in the past 100 years. This transformation will create opportunities to enhance reliability, efficiency, resiliency and security of the grid. The grid will continue to serve as the backbone of the Nation's electric infrastructure. It will enable innovation to flourish, and the supply and demand of electricity across the transmission and distribution networks, all while continuing to provide safe, affordable, reliable power.    The future grid will optimize the management and operations of the entire electric system value chain, which includes power generation, delivery and consumption. For example, new smart grid technologies help to enhance situational awareness, prevent outages, accelerate restoration, and--in the case of extreme events, and also integrate distributed energy resources. In addition, other technologies--other related technologies and capabilities such as energy storage, power electronics, and microgrids will also improve the performance of the grid.    The Electric Power Research Institute has estimated that the total benefit of smart grid is in the trillions of dollars. More importantly, for every dollar invested, $2.80 to $6 in benefits are realized.    GridWise and DOE's Office of Electricity work with hundreds of public and private stakeholders to develop a shared vision for the grid, which includes the following. The grid will be the key component of the future electric system. This system will include both central and distributed generation sources. Powering communications will flow in multiple directions. Residential, commercial and industrial customers will use the grid in different ways, becoming both consumers and producers of electricity. This will help achieve the following three outcomes to accelerate the transformation to the 21st century electricity system. First, building on this shared vision, enable policies to ensure the markets, regulations, and new technologies are all aligned. Congress can exercise its leadership to facilitate ongoing and new public-private collaboration to achieve the grid of the future. Second, the pursuit of this future grid will continue to spur innovation and attract ideas, talent and resources from a range of industries. And I think you only need to look to my right to see that. Third, create additional highly skilled jobs. The transformation of the grid will necessitate advanced skills to implement these technologies.    In conclusion, we have an important opportunity to accelerate the modernization of our Nation's electric grid. This will drive economic growth, strengthen our global competitiveness, and create highly skilled jobs. Action is needed now because this is a complex issue, and the technology and policy changes required could take years to implement. I want to underscore that access to a reliable, efficient, resilient and secure grid is a major source of our Nation's competitive advantage. Congress can play a key leadership role in facilitating the acceleration of grid modernization, and ensuring that we maintain this competitive advantage into the future.    Mr. Chairman, thank you for the opportunity to testify. I look forward to any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Mr. Atkinson.    And our next witness is Mr. Christopher Christiansen, who is Executive Vice President, Alevo Energy. And you are recognized for 5 minutes, Mr. Christiansen.</t>
   </si>
   <si>
-    <t>Christiansen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Christiansen. Thank you. And, Chairman Whitfield, Ranking Member Rush, and members of the committee, thank you for inviting me to testify on behalf of Alevo, Inc. You will hear from me today how Alevo believes that energy storage will play a crucial role in ensuring a secure, reliable and modern electricity system.    I will also discuss how Federal policymakers can help to accomplish this goal by reducing regulatory barriers to the development of energy storage to benefit electricity ratepayers and consumers.    My name is Christopher Christiansen, and I am the co-founder of Alevo, and I serve as the executive vice president of the Energy Division, which means I am responsible for all the energy daily activities, which include production design, business development, and sales strategies. I am also overseeing the development of over 200 megawatts of battery energy storage projects, which we are implementing in the next 12 months.    Alevo is a leading provider of energy storage systems designed to deliver grid-scale electricity on demand. Alevo couples grid analytics with our innovative battery technology, the Alevo GridBank. Alevo GridBank features a nonflammable, long life inorganic battery that enables a new source-agnostic architecture for electrical grids that reduce waste, greenhouse gases, create efficiencies and lower costs for the world's energy producers and their consumers. Our mission is to maximize the value, availability, usability and cleanliness of electricity to better serve mankind and the environment.    Alevo's manufacturing plant is located in a former cigarette plant in North Carolina in Concord, in the district of Congressman Hudson. We are on track to employ 500 people in 2015, and we expect to employ over 2,500 by the end of next year. We are also set up for significant growth, as Congressman Hudson knows, because we have a 3 \\1/2\\ million-square-foot facility that can, at full capacity, produce 16 gigawatt hours a year. Within the next 12 months, we are manufacturing and commissioning more than 200 megawatts of energy storage batteries.    Alevo is building a vertically integrated manufacturing and deployment organization, creating a global energy storage business to work with the world's leading and largest energy companies.    The electric grid is the only system of production that has not had a way to store its product efficiently. Energy storage changes that equation, allowing us to store that electric production and then use it when we need it, where we need it, and at the best price. Energy storage technologies, like the battery Alevo is manufacturing, will change the way our electric grid works, to enable greater efficiency of our existing generation fleet by optimizing heat rates, reduce ramping, to allow for increased resilience and reliability of the system, and to lower the cost of electricity for every consumer. Additionally, the increased efficiency provided by storage lowers emission and water usage, 2 important and environmental benefits realized without adding cost to ratepayers.    According to market research firm, IHS, energy storage growth will explode from 340 megawatts in 2012 to 2013, to 6 gigawatts by 2017, and over 40 gigawatts by 2022. To put that in perspective, 40 gigawatts is equivalent to 40 new coal or gas fire power plants, and it is enough power to power a home--over 32 million homes for 1 hour. This explosion would create jobs in manufacturing, as with Alevo, right here in the U.S., allowing us to put our innovation to use to the benefit of the electric grid and consumers.    As the theme of this hearing suggests, energy storage technologies like Alevo's GridBank will secure a reliable and modern electric grid. The 21st century grid will be exposed to increased generation from variable sources, and also increased fluctuations in load. States hit by Hurricane Sandy, like New Jersey and New York, are already building these technologies into their resilience plans to ensure that emergency services are kept functional during catastrophic events. Even during ordinary power blips or outages, energy storage can help a system and its consumers ride through those events seamlessly. Southern California Edison recently issued a series of awards to accommodate local capacity requirements for their electric customers. They were required to consider 50 megawatts of storage; instead, they awarded 50--sorry, they awarded 260 megawatts of storage, since it was competitive and provided the flexibility the utility needed for the system. As utilities and system operators consider their needs both now and in the future, and with the right policies in place, more and more energy storage is being deployed, decreasing the perceived risk inherent in new technologies, and reducing the cost of those technologies through increased scale. Alevo is positioned to drive down those scales--those costs even further with the manufacturing of hundreds of megawatts of energy storage capacity in the first year alone. One key policy that this committee can change is to reduce regulatory barriers for energy storage facilities, including exemption for Federal and State regulations in the same way those barriers are currently used for qualifying coal generation facilities. Congress could also ask FERC to valuate the value generated by energy storage, and ensure that FERC's current policies recognize and award those values.    I look forward to addressing any questions the committee has about Alevo and our innovation, or about energy storage technologies more generally. And I thank you for the opportunity to present this testimony.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Mr. Christiansen.    At this time, I would like to recognize Mr. Joel Ivy, who is General Manager of Lakeland Electric, who is testifying on behalf of the American Public Power Association. You are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Ivy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ivy. Thank you, Mr. Chairman. Good morning, everyone. I bring you warm greetings from sunny Florida.    The American Public Power Association, based in Washington, DC, is the national service organization for the more than 2,000 not-for-profit community-owned electric utilities in the United States. Lakeland Electric in Lakeland, Florida, is an APPA member, serving approximately 122,000 customer accounts in central Florida for the past 110 years. Like other public power utilities represented by APPA, Lakeland Electric was created to serve the needs of its local community by providing low-cost, reliable electric service on a not-for-profit basis.    Public power utilities have been improving our grid-based technologies for some time now. As fiber optic systems started to become more prolific, the application of smarter tools and equipment became truly viable. Together with newer wireless technologies, we have been able to greatly expand access to information, perhaps like never before.    I will discuss initiatives being, excuse me, under--I will discuss initiatives being undertaken nationwide by public power utilities related to grid innovation, but focus the bulk on my testimony on what Lakeland Electric has done and why. I am defining grid innovation as including deployment of smart meter technologies and communication systems to support those and other technologies, deployment of distributed generation, or DER, distributed energy resources, including storage. Increased real- and near-time real-time monitoring of power systems, which enhances situational awareness, and management of the big data being accumulated through the use of smart grid technologies. In addition, I want to discuss briefly some of the challenges to deploying these technologies, including cybersecurity.    So the deployment of AMI, or automated metering infrastructure, is significantly more mainstream than a decade ago. It has become almost the default choice for upgrades to meters, leaving on the question of using fiber or wireless, or in Lakeland's case, both. This effort was kick-started with Federal grants and loans, of which my organization was a proud recipient. In fact, we completed our deployment in 2013, and are now offering customer access to their information via our Web portal, and have some creative alternative rate programs for earlier adopters to use to save money and energy in their homes and businesses.    The APPA and Lakeland are generally supportive of distributed energy resource technologies, such as rooftop solar, but the concepts of rate programs that will continue to spur this investment, while allowing utilities recovery of our fixed cost, is among the fastest growing issues in our industry. Excuse me. Net metering in some locations such as Lakeland provides a customer credit based on the full retail rate, which may allow customers to reach a net-zero bill on an annual basis. Changes to our rates must not punish the early adopters who invested in older, more expensive solar technologies. At the same time, we must ensure utilities have proper revenue to recover the cost of our poles, wires and generators. This rate design issue is going on appropriately at local and State levels across the country, including in Lakeland.    Regarding distributed energy resources, utilities are also concerned about customers having access to good information that allows them to make sound decisions without future regrets. Business practices that may be leading to the provision of erroneous information to customers, including information provided by certain solar leasing companies related to the payback of the leases, which are in turn being tied to unrealistically high assessments of annual electricity price increases, are at the heart of our concern.    The future construct of the smart grid is full of unknowns as we look out longer into the future, and continued Federal support for funding innovative projects will be very important as our Nation's entrepreneurs provide the newest and best support equipment and processes.    Finally, Lakeland--Federal, State, and local collaboration is essential to maintaining physical and cybersecurity. While Lakeland has adopted cybersecurity as an essential business practice, the collaboration with governments at all levels remains a critical component, particularly related to information sharing.    In summary, public power utilities like Lakeland Electric are deploying a variety of technologies to optimize a grid for more efficient and reliable service. In so doing, we worked very collaboratively with our customers, our policymakers, and our communities to determine what is most appropriate at the local level. The Federal Government can help in terms of targeted grants, and research and development, as well as in the area of cybersecurity, by sharing actionable and timely information with the industry.    Mr. Chairman, thank you for allowing me to be here.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Well, thank you, Mr. Ivy.    And at this time, I would like to recognize Mr. Paul Nahi, who is CEO of Enphase Energy. And you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Nahi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nahi. Thank you, Mr. Chairman. Chairman Whitfield and fellow subcommittee members, than you for the opportunity to testify at the Subcommittee on Energy and Power's 21st century electricity challenge hearing.    Enphase Energy provides solar energy solutions for the residential and commercial market, as well as energy services for utilities. Through the most sophisticated power electronics and communications technology in the world, we are able to bring a level of visibility, intelligence and control to our solar systems, which are deployed in over 80 countries. This has enabled us to leverage our solar assets to help strengthen and increase the resilience of the grid, while providing clean, affordable energy for our customers in the U.S. and all over the world. A public utility company located in the San Francisco Bay area, Enphase has grown to over 600 employees since 2006, and plans to employ over 750 employees by the end of 2015. Our products are now installed by tens of thousands of workers across the United States each day. We have a profitable business, and continue to invest in new technologies and new markets to enable more consumers to enjoy the benefits of clean, affordable energy, while helping our utility partners strengthen and stabilize the grid. In doing so, we are creating both blue- and white-collared jobs in our country, and creating competitively priced products that make the United States a global leader in our technology class.    Our advanced technology solutions turns solar systems into assets on the grid, and our energy management system addresses the grid's needs via our intelligent communications technology. In fact, we just completed an upgrade with a utility partner to remotely modify the operating characteristics of thousands of solar systems to substantially strengthen their distribution and feeder networks. In essence, we enable solar systems to observe and then respond to the potential grid issues, thus increasing its reliability. By optimizing the grid in this manner, we can either delay or eliminate significant capital costs, thereby reducing cost for consumers.    As is implied by our product offering, it is clear that our number one job at Enphase is to help provide clean, affordable energy, while increasing grid stability. At the same time, we recognize the urgent need to increase the security of our energy supply. Energy security is fundamental to the health of our country. It is also a specific focus of this Congress. It must be recognized that new, clean energy resources can play a significant role in enhancing our energy security. Solar and wind are abundant and limitless, and it is our responsibility to harness these resources responsibly. That said, Enphase and others in this new energy economy will play a fundamental role in ensuring the energy security of our country. The technologies we develop leverage years of innovation in the semiconductor and information technology markets, and include many of our own advances. Because of this, each system we ship is embedded with the most advanced security protocols, and can be remotely updated as necessary to prevent new cyber threats. We take our role as a though leader in the energy security seriously, and believe this arena will become increasingly critical over time.    In order to ensure that our efforts to provide clean energy to consumers, while strengthening the resiliency and security of the grid, continue unabated, we must also maintain our relentless pursuit of more cost-effective solutions. Providing clean, secure energy is not enough. We must make it affordable for everyone. We have been able to dramatically lower the cost of our solar solutions, and are now applying the same technology to storage, where we also expect to see a dramatic decrease in costs. The same processes and semiconductor technologies used for developing and scaling the consumer electronics market are now being applied by Enphase to the renewable energy market. Technologies like the Enphase energy management system have the ability to realize significant cost reductions through economies of scale and continued innovation. It is my opinion that solar and other energy technologies will play a fundamental role in the new energy economy as a result of our ability to innovate and scale, resulting in highly cost-competitive, reliable and secure energy generation.    Enphase Energy is built on a foundation of collaboration. We believe that a health industry lifts all market participants. We have no doubt that the creation of a new energy economy will result in hundreds of thousands of new jobs for Americans, and we are looking forward to enabling those interested in participating in this industry to make a smooth and successful transition. The result will be a strong and vibrant industry, abundant access to clean, affordable energy, a large, well-paid workforce, and a prosperous future for all Americans. The success of our company and other new energy participants is a testament to the increasing demand for affordable, clean energy, and we do not expect this to subside.    That said, I believe our role as job creators now and in the future cannot be underestimated. With this role comes the responsibility to help others transition to this new and growing industry. We must recognize the amazing accomplishments of those in the industry who carved the path before us, and provide the support necessary to enable them to participate in this new energy paradigm.    Lastly, we aim to remain competitive internationally to ensure the United States retains a position of leadership in the world's energy ecosystem.    I appreciate the opportunity to testify before this committee, and look forward to working with Congress as we continue to add jobs, increase grid stability, protect our citizens against cyber threats, and ensure the United States maintains its position as a global technology leader. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you.    Our next witness is Mr. Naimish Patel, who is the CEO of Gridco Systems. And you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Patel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Patel. Thank you, Mr. Chairman, and the other distinguished guests or congressional members of this committee.    This is an important topic we will be speaking about today. My name is Naimish Patel. I am the CEO of Gridco Systems, a leading provider of agile grid infrastructure, that is consisting of advanced control and power flow technologies for the electric grid.    Since the Pearl Street Power Station first went online in Manhattan in 1882, the electric grid in the U.S. has become pervasive in its reach, essential to the sustainable growth of our economy and national security, and a services platform that we have become intimately reliant upon, yet often take for granted; all testament to the work of the numerous utilities that maintain and operate our grid.    Today, however, utilities are operating in a changing environment that poses a wide variety of challenges, but also opportunities for innovation. Much as our telephone system experienced a transformation in the 1990s, catalyzed by customer adoption of computing and demand for information services, so too are we seeing the beginning of a customer-driven evolution of the electric grid. Consumers of power are increasingly also becoming producers, through adoption of rooftop solar or small-scale wind power, requiring the distribution grid to accommodate two-way power flow for the first time, counter to the assumptions underlying its original architecture. Customer adoption of electric vehicles is creating new demand for power, each vehicle equivalent to entire home while charging, requiring new utility demand control measures to avert overloading existing infrastructure. Customer adoption of energy efficiency measures and home automation offer new resources that utilities can potentially harness for systemic benefit, blurring the nature of the relationship between utility and customer. Finally, increasing diversification of customer demand is creating stress on regulatory frameworks that have traditionally been oriented towards one-size-fits-all power delivery. All of these changes are compounded by the fact that centralized base-load generation and transmission capacity are growing tighter, and increasing volatility in global weather patterns is driving the need for higher levels of grid resiliency. In the face of these challenges, utilities must continue to deliver on their fundamental mission of supplying safe, reliable, and affordable power, while also introducing system flexibility in order to be adaptive to a more dynamic and diverse demand/supply environment. Emerging at this intersection of requirements is a historic opportunity for regulators, utilities and technology suppliers to jointly innovate.    Not surprisingly, given the aforementioned trends are occurring at the edge of the grid where customers connect, the electric grid's distribution system is on the forefront of change. Historically, investment in the distribution system has targeted upgrades of wires, poles and transformers; what is typically referred to as grid reinforcement. While these investments in grid capacity are indeed necessary, the flexibility to accommodate a more dynamic demand/supply environment relies on investment in infrastructure that can efficiently utilize existing capacity in order to curb costly grid reinforcement and, thus, electricity rates, while assuring reliable delivery of power under rapidly changing conditions. Much as the Internet is based on devices that actively and dynamically manage the flow of information across fiber optic or copper wires, the electric grid will increasingly require devices that actively and dynamically manage the flow of power, all under the control of a reliable, secure and scalable grid operating system. Fortunately, the technology building blocks needed to provide these functions are available, and at the cost, efficiency, and reliability metrics expected of electric utilities. Advancements in power electronics technology borrowed from hybrid and electric vehicles, wind convertors and solar inverters, can now be leveraged to provide dynamic regulation and routing of power flows at utility scale. While ruggedized distributed controllers, coupled with advanced networking techniques borrowed from the telephone sector, enable an emerging grid operating system to manage both utility and customer-owned assets, including power regulators, distributed energy resources, and home automation gateways, amongst many others. These core functions make the grid not just smart, but agile. It is brains and brawn in combination, or smarts in conjunction with action, that underlies agility, and most importantly, provides for a strong, standalone business case.    We at Gridco Systems are singularly focused on providing these essential building blocks of the agile grid. We are working with utilities throughout the Nation in deploying our empower solution to address the challenges of today, while providing the foundation to adapt to the challenges of tomorrow. Strong economics drives our customer engagement process. Gridco's focus is on delivering solutions that are more cost-effective, and delivering more compelling benefits to cost ratio than business-as-usual approaches, avoiding the need for subsidies and rate increases. As such, many utilities are able to leverage existing budgets to implement our solutions to address DER integration, increase asset and capacity utilization, improved energy efficiency, and deliver higher power quality, all justified on the fundamental economic benefits rendered.    Technology availability is currently not the limiting factor in driving modernization of the electric grid. Missing are the financial incentives for utilities to invest in new technologies to address diversification of customer demand. And to be clear, I am not suggesting that use of subsidies. The cost of service-based regulatory compact that has guided the evolution of the distribution system since the Public Utility Holding Company Act of 1935, has proved highly effective during times of simultaneous load growth, relatively uniform customer demand, and increasing economies of scale and supply. Such macroeconomic conditions generally present from the 1930's to the 1980's, maintained low electricity rates and reliable service for end customers, while strong predictable returns for investors. Over the last 2 decades, however, average load growth in the U.S. has slowed, becoming less coupled to GDP growth, owing in part to the adoption of energy efficiency measures, and also to an increase in the service orientation of the U.S. economy. Nevertheless, the reliable operation of the electric grid is as critical as ever to those customers--to our growth of our economy, and as such, continued investment is essential, but without rate increases for those customers whose use of the grid has not changed. After all, changes in customer use of the electric grid are by no means universal, at least at present. Customer adoption of rooftop solar, energy efficiency measures, and electric vehicles tend to be highly demographically correlated. As such, a minority of end customers, albeit a rapidly growing minority, is demanding something new of the grid, yet, the cost to accommodate them are socialized across the entire customer base under currently regulatory structure. Further compounding this is the fact that such customers may even pay less into the system, owing to their lower consumption of energy. Let us be clear; we want the grid to accommodate such customers. Their behind-the-meter investments are driven by basic economics that are only getting stronger. However, the revenue a utility realizes from these customers must reflect the actual cost of service to accommodate them. Fundamentally, not all customers are alike, and electricity rates structures must not only start to account for diversification of customer demand, but indeed, incentive--incentivize utilities to supply such demand.    Conversations among State regulators, utilities, suppliers and other stakeholders are occurring throughout the Nation on how to evolve rate design to better align utility revenues with their underlying costs.</t>
   </si>
   <si>
@@ -259,9 +226,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you. Sorry for bouncing back and forth. I have another hearing upstairs, and met with the funeral home directors, and so we are trying to do multiple things at once.    Mr. Kamen, it is great to see you. Charlie Bass, it is good to see you. Secretary, good to see you back in the crowd.    FIRST Robotics. I will do the plug, right? We talked earlier, so the actual--the championship is in St. Louis, Missouri, which is right across the river from where I live. We follow it very, very closely. Thank you for that because now, it has gone not just into high school, but in the middle schools and in the grade schools with the Lego thing. And our Christian Dade School that I graduated from, my wife teaches at, they are all in it, and it is a great thing that you have started and I want to give that plug here.    Also, I would like to go on just the issue, I know you have a great diverse background as an inventor in the medical field, insulin pumps, dialysis, why are you interested in this energy debate?</t>
   </si>
   <si>
@@ -319,9 +283,6 @@
     <t>400320</t>
   </si>
   <si>
-    <t>Joseph R. Pitts</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pitts. Thank you, Mr. Chairman. Thank you for your testimony. Good to see you. Charlie Bass, the Secretary, welcome.    Mr. Atkinson, please tell us a bit about your R and D process, how does Alstom Grid go about bringing R and D to the market?</t>
   </si>
   <si>
@@ -355,9 +316,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair. And welcome to our panelists.    A number of you have mentioned in your testimony the increased role of customer involvement in the current operation of the grid, and the prospects for much more involvement in the future. Of course, this represents a significant departure from the mostly passive role that the average consumer plays now. They receive a bill and they pay it. If the power goes out, they call their local utility and report it. Now, consumers are also producing energy, and their ability to refine and manage their appliances and sources of energy are expanding. This is certainly part of what the smart grid is all about.    You all mentioned the need for better information to go to consumers about their choices, and to educate them about how all this is going to work. How are utilities approaching this given phenomenon? Anyone? Yes, Mr. Siebel?</t>
   </si>
   <si>
@@ -391,9 +349,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman.    I thought that when we came here, the hearing was the ensuring a secure, reliable and modern electric system, and I thought by extension, we were going to be talking a lot more about the grid, and I have got more confused as I have heard all this discussion. It is much like, you know, I am an engineer by training and, by virtue of that, I suppose I can take on the lawyers in the room, because you ask 100 lawyers an opinion on something, you are going to get 100 different opinions. So I am curious, I have heard very professorial comments, very in-depth, your white papers that you have all developed about this topic, but I wonder whether or not we have been able to reach America with the story, because we have been talking about source agnostic architecture. We have even heard about balkanizing. We have heard about platforms, we have talked about polar vortexes. Mr. Kamen, you were about as close to talking to the American public as I have seen in this panel. One thing I have learned in Congress in my 4 years here, that we have trouble when we are confronted with more than one option, and I haven't heard the option. I have heard seven or eight different themes of where we should go, and I am really trying to get to a point with the grid of what is--and the folks on the other side, they all keep talking about consensus, so I will take their word. Is there a consensus of where we should go to develop grid reliability, because what we have not talked about is the public's resistance, the public doesn't want--``don't put that high-tension line over my property, not in my back yard''. We haven't talked about electromagnetic pulse, the threat to our grid reliability with that, because we know that is a serious challenge. We have talked about the fact that we have had briefings, I don't think I am breaching protocol here, but we can shut off someone else's grid in another country, and they can shut off our grid, because we have that capability. There was just some mention slightly about the EPA regulations and shutting down some of our powerhouses that when we had this polar vortex, that we are now leading to a point that we came within, what I was told, 700 megawatts of having a brown-out last winter. That is really threatening. I don't know whether people across American understand, that is really just one powerhouse, 700 megawatts.    And then the option of the age issue, I would like for you to just explain in terms that we don't use here in the beltway for Mildred Schmidt to understand, what does that have to do with what--tell me a little bit more about the age because we have waterlines and sewer lines, and buildings and roads and bridges that are far older than 25 years. Why should I be worried about electric grid--why should I be worried about the electric power lines being 25 years old? So with that, I would like to hear, is there a consensus of where we should go, where Congress should be putting its first priority in getting greater reliance or dependability, or are we just kind of talking abstract again? Is there a consensus? Mr. Kamen.</t>
   </si>
   <si>
@@ -445,9 +400,6 @@
     <t>412209</t>
   </si>
   <si>
-    <t>David Loebsack</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loebsack. Thank you, Mr. Chair. Thank you for having this very, very critical hearing today, and thanks to all of you for being here. I really appreciate this very much.    I am new on this committee, on the larger committee. I am new on the subcommittee, but I have been dealing with these issues, especially in rural Iowa, since I have been in office since 2007. Trying to get my head around all of this. It isn't all that easy, as you might imagine as well, because all of you are kind of coming at this from different angles and what have you. But, you know, clearly, the idea of the smart grid makes a lot of sense. The whole idea of the--of an individual sort of having more control over how they use energy, the amount of energy they use and all, I mean I get my, you know, monthly utility bill, it tells you sort of in a macro-sense how much I have used, but that is not nearly the same as being able to control, you know, time of day and all kinds of things much better than I am able to do now, so I really appreciate that. And I do believe in individuals taking their own responsibility for their decisions.    And we see in Iowa, for example, we do see a lot of wind turbines, you know, at farms, and solar panels powering, you know, hog farms, for example. I mean there is all kinds of stuff like that going on around this country, and around the 24 counties in my congressional district. It is really quite fascinating to see how this is all going. And the local RECs are kind of coming onboard more on solar, and some of these alternative energies as well. So it is really pretty exciting, and I am glad that Mr. McNerney was excited because--I am not quite as excited, but I am excited about all this, and sort of where we can go from here.    You know, Iowa, traditionally, we were a coal State, not unlike parts of Illinois where Congressman Shimkus is from. John L. Lewis, actually, is from Iowa, long ago. But we have made this transition in many ways. I like to remind people that 27.3 percent of our energy in Iowa is wind-generated. We have a heck of a lot of wind energy in Iowa. Now there is big controversy about building a transmission line across the State carrying, you know, energy that is not necessarily generated in Iowa, but in other places, over to other markets to the east of us. But we are really making tremendous progress when it comes to renewables, there is no doubt about that.    But I do want to ask kind of a general question. Anybody wants to answer this. And keeping in mind that if I get--if that takes my time--I want to come back to you, Mr. Kamen, especially the German issue and some things you were talking about, and if I don't get to that then we will do it for the record, if that is OK. Thank you.    So, you know, I am from a rural area. We have a lot of challenges. We have natural disasters. Aligned Energy said they lost 6,000 poles in February of 2007 when we had this massive ice storm. And I guess if you could be as specific as possible, how do we look at making sure that we get sufficient energy--continue to get sufficient energy to the more rural areas in places like Iowa and other places? I know it is a general question, and it is a big challenge to answer that question, but I want to open that up to anyone. You are nodding, Mr. Kamen. I don't want to be preferential here, but you are nodding like you do want to answer that question.</t>
   </si>
   <si>
@@ -499,9 +451,6 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta [presiding]. Well, thank you very much. The gentleman yields back. And the Chair recognizes himself for 5 minutes. And I apologize, there is another subcommittee of the full committee running at the same time as this, but I tell you, this is a very, very important issue and I really appreciate the testimony that you all submitted today, and also being here today.    And, Mr. Siebel, if I could start with you, how do the kinds of energy analytics you have described help us with energy security and reliability?</t>
   </si>
   <si>
@@ -520,9 +469,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Mr. Kamen, you testified that advanced grid technologies offer a promising future for U.S. electric systems, but the immediate challenge is to develop the appropriate business models and regulatory structures to effectively manage the integration of modern technologies. Do you have any recommendations as to what these business models and regulatory structures might look like?</t>
   </si>
   <si>
@@ -586,9 +532,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman.    I want to start with Mr. Ivy, and I know these two may not actually go together, but in practical and legal terms, which those are the two I am talking about, is it better for the development of advanced grid technology to be managed at the local or State levels?</t>
   </si>
   <si>
@@ -643,9 +586,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much. Wow, what a great panel you have put together, Mr. Chairman. It has really been a very educational morning. I have been here since the beginning, so I can say that you all have been very helpful in educating me. I happen to be one of the few members of this committee that is one of those evil lawyers everybody talks about, so I need lots of help in understanding these things. But I am concerned about privacy issues, and, Mr. Ivy, your company has some smart meters, as I understand it, and you all have an opt-out provision. Can you tell me what that is important to your customers?</t>
   </si>
   <si>
@@ -725,9 +665,6 @@
   </si>
   <si>
     <t>412457</t>
-  </si>
-  <si>
-    <t>Renee L. Ellmers</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Ellmers. Thank you so much to my colleague, and thank you for this panel. This is awesome. And, Ranking Member McNerney, I don't know if he had mentioned, because I had to step out, that we co-chair the Grid Innovation Caucus together, and we are very, very excited and energized, no pun intended, on this issue and all of the significance of it.    And, Mr. Kamen, I can't agree with you more, when it comes to thermodynamics and then when you are talking about what we do here, it makes absolutely no sense. You are talking about logic and facts, and unfortunately, many times those things do not fit into what we do here, unfortunately. So, you know, it is so funny, I have my list of questions and I have changed up, you know, as I am listening to the conversation because I want to ask everything and, obviously, I can't.    I do want to get to the question of the hurdles that are in place, that are standing in the way of us moving forward with more of the grid innovation, and how do we pay for this, what do we do, how can we do a better job as legislators just being able to tell your story and the advancements that can happen. You know, I just believe that when we are talking about energy, and long-term energy policy for our future of this country, we have the grid technology as a part of that conversation. It is just so vital to our future.    You know, Mr. Atkinson, I just want to go back to the conversation we have been having about the, you know, how we incorporate analytics into everything that we are doing, and obviously, that is a big part. As far as your ability to improve the way you forecast how energy will be used into the future, and the supply that is needed, are your companies incorporating these things, do you have that capability, and are there metrics in place now where we can start measuring the efficiencies and the improvements?</t>
@@ -1189,11 +1126,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1215,11 +1150,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1239,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1267,11 +1198,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1291,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1317,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1345,11 +1270,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1371,11 +1294,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1397,11 +1318,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1423,11 +1342,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1449,11 +1366,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1475,11 +1390,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1501,11 +1414,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1527,11 +1438,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1553,11 +1462,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1579,11 +1486,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1605,11 +1510,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1631,11 +1534,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1657,11 +1558,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1683,11 +1582,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1709,11 +1606,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1735,11 +1630,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1761,11 +1654,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1787,11 +1678,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1813,11 +1702,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1839,11 +1726,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1865,11 +1750,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1891,11 +1774,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1917,11 +1798,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1943,11 +1822,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1969,11 +1846,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1995,11 +1870,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2021,11 +1894,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2047,11 +1918,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2073,11 +1942,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2099,11 +1966,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2125,11 +1990,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2149,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2177,11 +2038,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>29</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2201,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2229,11 +2086,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>32</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2253,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2281,11 +2134,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>35</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2305,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2333,11 +2182,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>35</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2357,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2385,11 +2230,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>35</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2409,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2437,11 +2278,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2461,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2489,11 +2326,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2513,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2541,11 +2374,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>32</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2565,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2593,11 +2422,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2617,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s">
-        <v>81</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2645,11 +2470,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>29</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2669,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" t="s">
-        <v>81</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2697,11 +2518,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2721,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2749,11 +2566,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>35</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2773,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s">
-        <v>81</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2801,11 +2614,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>26</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2825,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2853,11 +2662,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2877,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2905,11 +2710,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>32</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2929,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2957,11 +2758,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>32</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2981,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3009,11 +2806,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>41</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3033,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3061,11 +2854,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3085,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>100</v>
-      </c>
-      <c r="G75" t="s">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3113,11 +2902,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>32</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3137,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>100</v>
-      </c>
-      <c r="G77" t="s">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3165,11 +2950,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>35</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3189,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>100</v>
-      </c>
-      <c r="G79" t="s">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3217,11 +2998,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>38</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3241,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>100</v>
-      </c>
-      <c r="G81" t="s">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3269,11 +3046,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>29</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3293,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>100</v>
-      </c>
-      <c r="G83" t="s">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3321,11 +3094,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3345,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>112</v>
-      </c>
-      <c r="G85" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3373,11 +3142,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>26</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3397,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>112</v>
-      </c>
-      <c r="G87" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3425,11 +3190,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>26</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3449,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>112</v>
-      </c>
-      <c r="G89" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3477,11 +3238,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>38</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3501,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>112</v>
-      </c>
-      <c r="G91" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3529,11 +3286,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>35</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3553,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
-      </c>
-      <c r="G93" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3581,11 +3334,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3605,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>124</v>
-      </c>
-      <c r="G95" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3633,11 +3382,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3657,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>124</v>
-      </c>
-      <c r="G97" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3685,11 +3430,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>29</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3709,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>124</v>
-      </c>
-      <c r="G99" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3737,11 +3478,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3761,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>124</v>
-      </c>
-      <c r="G101" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3789,11 +3526,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3815,11 +3550,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3839,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>124</v>
-      </c>
-      <c r="G104" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3867,11 +3598,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>26</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3891,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>124</v>
-      </c>
-      <c r="G106" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3919,11 +3646,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3945,11 +3670,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>44</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3971,11 +3694,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3997,11 +3718,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>44</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4023,11 +3742,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4047,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>142</v>
-      </c>
-      <c r="G112" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4075,11 +3790,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>29</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4099,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>142</v>
-      </c>
-      <c r="G114" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4127,11 +3838,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>29</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4151,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>142</v>
-      </c>
-      <c r="G116" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4179,11 +3886,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>29</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4203,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>142</v>
-      </c>
-      <c r="G118" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4231,11 +3934,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>29</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4255,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>142</v>
-      </c>
-      <c r="G120" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4283,11 +3982,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>41</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4307,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>142</v>
-      </c>
-      <c r="G122" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4335,11 +4030,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>41</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4359,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>142</v>
-      </c>
-      <c r="G124" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4387,11 +4078,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>41</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4411,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>142</v>
-      </c>
-      <c r="G126" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4439,11 +4126,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>41</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4463,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>142</v>
-      </c>
-      <c r="G128" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4491,11 +4174,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>41</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4517,11 +4198,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4541,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>142</v>
-      </c>
-      <c r="G131" t="s">
+        <v>127</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
         <v>143</v>
-      </c>
-      <c r="H131" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4567,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>160</v>
-      </c>
-      <c r="G132" t="s">
-        <v>161</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4595,11 +4270,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>26</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4619,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>160</v>
-      </c>
-      <c r="G134" t="s">
-        <v>161</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4647,11 +4318,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>32</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4671,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>160</v>
-      </c>
-      <c r="G136" t="s">
-        <v>161</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4697,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>167</v>
-      </c>
-      <c r="G137" t="s">
-        <v>168</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4725,11 +4390,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>29</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4749,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>167</v>
-      </c>
-      <c r="G139" t="s">
-        <v>168</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4777,11 +4438,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4801,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>167</v>
-      </c>
-      <c r="G141" t="s">
-        <v>168</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4829,11 +4486,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>29</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4853,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>167</v>
-      </c>
-      <c r="G143" t="s">
-        <v>168</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4881,11 +4534,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>32</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4905,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>167</v>
-      </c>
-      <c r="G145" t="s">
-        <v>168</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4933,11 +4582,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>35</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4957,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>167</v>
-      </c>
-      <c r="G147" t="s">
-        <v>168</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4985,11 +4630,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>35</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5009,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>167</v>
-      </c>
-      <c r="G149" t="s">
-        <v>168</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5037,11 +4678,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>35</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5061,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>167</v>
-      </c>
-      <c r="G151" t="s">
-        <v>168</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5089,11 +4726,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>38</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5113,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
+        <v>150</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
         <v>167</v>
-      </c>
-      <c r="G153" t="s">
-        <v>168</v>
-      </c>
-      <c r="H153" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5141,11 +4774,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>38</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5165,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>167</v>
-      </c>
-      <c r="G155" t="s">
-        <v>168</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5193,11 +4822,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5217,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>189</v>
-      </c>
-      <c r="G157" t="s">
-        <v>190</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5245,11 +4870,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>38</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5269,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>189</v>
-      </c>
-      <c r="G159" t="s">
-        <v>190</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5297,11 +4918,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>29</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5321,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>189</v>
-      </c>
-      <c r="G161" t="s">
-        <v>190</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5349,11 +4966,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>29</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5373,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>189</v>
-      </c>
-      <c r="G163" t="s">
-        <v>190</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5401,11 +5014,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>29</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5425,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>189</v>
-      </c>
-      <c r="G165" t="s">
-        <v>190</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5453,11 +5062,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>29</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5477,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>189</v>
-      </c>
-      <c r="G167" t="s">
-        <v>190</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5503,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>189</v>
-      </c>
-      <c r="G168" t="s">
-        <v>190</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5531,11 +5134,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>38</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5555,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>189</v>
-      </c>
-      <c r="G170" t="s">
-        <v>190</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5583,11 +5182,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>38</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5607,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>189</v>
-      </c>
-      <c r="G172" t="s">
-        <v>190</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5635,11 +5230,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5659,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>208</v>
-      </c>
-      <c r="G174" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5687,11 +5278,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>38</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5711,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>208</v>
-      </c>
-      <c r="G176" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5739,11 +5326,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>29</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5763,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>208</v>
-      </c>
-      <c r="G178" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5791,11 +5374,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>29</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5815,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>208</v>
-      </c>
-      <c r="G180" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5843,11 +5422,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>29</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5867,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>208</v>
-      </c>
-      <c r="G182" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5895,11 +5470,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>29</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5919,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>208</v>
-      </c>
-      <c r="G184" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5947,11 +5518,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>29</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5971,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>208</v>
-      </c>
-      <c r="G186" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5999,11 +5566,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>29</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6023,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>208</v>
-      </c>
-      <c r="G188" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6051,11 +5614,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>29</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6075,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>208</v>
-      </c>
-      <c r="G190" t="s">
-        <v>209</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6103,11 +5662,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6127,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>22</v>
-      </c>
-      <c r="G192" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6155,11 +5710,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>38</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6179,13 +5732,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>22</v>
-      </c>
-      <c r="G194" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6207,11 +5758,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>44</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6231,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>22</v>
-      </c>
-      <c r="G196" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6259,11 +5806,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>38</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6283,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>22</v>
-      </c>
-      <c r="G198" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6311,11 +5854,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6335,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>236</v>
-      </c>
-      <c r="G200" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6363,11 +5902,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>32</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6387,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>236</v>
-      </c>
-      <c r="G202" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6415,11 +5950,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>32</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6439,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>236</v>
-      </c>
-      <c r="G204" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6467,11 +5998,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>32</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6491,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>236</v>
-      </c>
-      <c r="G206" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6519,11 +6046,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>32</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6543,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>236</v>
-      </c>
-      <c r="G208" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6571,11 +6094,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>32</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6595,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>236</v>
-      </c>
-      <c r="G210" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6623,11 +6142,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>32</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6647,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>236</v>
-      </c>
-      <c r="G212" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6675,11 +6190,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>32</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6699,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>236</v>
-      </c>
-      <c r="G214" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6727,11 +6238,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>32</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6751,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>236</v>
-      </c>
-      <c r="G216" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6779,11 +6286,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>32</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6803,13 +6308,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>236</v>
-      </c>
-      <c r="G218" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6831,11 +6334,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>35</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6855,13 +6356,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>236</v>
-      </c>
-      <c r="G220" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6883,11 +6382,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>35</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6907,13 +6404,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>236</v>
-      </c>
-      <c r="G222" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6935,11 +6430,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>35</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6959,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>236</v>
-      </c>
-      <c r="G224" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6987,11 +6478,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>35</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7011,13 +6500,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>236</v>
-      </c>
-      <c r="G226" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7039,11 +6526,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>35</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7063,13 +6548,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>236</v>
-      </c>
-      <c r="G228" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7091,11 +6574,9 @@
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229" t="s">
-        <v>35</v>
-      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7115,13 +6596,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>236</v>
-      </c>
-      <c r="G230" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7143,11 +6622,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>35</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7167,13 +6644,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
+        <v>216</v>
+      </c>
+      <c r="G232" t="s"/>
+      <c r="H232" t="s">
         <v>236</v>
-      </c>
-      <c r="G232" t="s">
-        <v>237</v>
-      </c>
-      <c r="H232" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7195,11 +6670,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95507.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95507.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Whitfield</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing to order this morning, and certainly want to thank our panel of distinguished witnesses. I am not going to introduce them at this time, but when you--right before your opening statements, I will introduce each one of you, and each one of you will be given 5 minutes to make your opening statement, and then we will have an opportunity to ask questions.    Today's hearing is entitled ``The 21st Century Electricity Challenge: Ensuring a Secure, Reliable, and Modern Electricity System.'' And I recognize myself for 5 minutes, I see I am already started on the clock.    As we all know, the U.S. was the first nation to electrify, and our system of generation, transmission, distribution, and related communication remains the best in the world. Nonetheless, new challenges are emerging, as are opportunities to modernize and improve the electric grid. The challenges are significant. Much of our grid is outdated. In fact, I have heard--I think I remember in someone's statement, 70 percent of our grid is over 25 years old. Coal-fired generation facilities are shutting down at an alarming rate, reserve margins are inadequate in several regions, intermittent and remote renewable capacity is coming online, and cyber threats pose a growing concern. Those are some of the challenges, but the--we have many opportunities also. Utilities are planning to invest more than $60 billion in transmission infrastructure through 2024 to modernize the Nation's electric grid, while abundant fuel resources and advanced generation, storage, and distribution management technologies can help modernize and diversify the Nation's power portfolio. Further, big data energy analytics and new information technologies offer a diverse suite of novel products and services that can identify and mitigate inefficiencies in the electricity supply chain, while helping utilities meet changing consumer expectations.    So we have many opportunities, and that is why we want you distinguished gentlemen here today to give us some insights on opportunities for the future.</t>
   </si>
   <si>
@@ -61,6 +67,12 @@
     <t>412189</t>
   </si>
   <si>
+    <t>McNerney</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McNerney. Well, thank you, Mr. Chairman.    Hey, this is a really exciting hearing. It is an area I care a lot about. You know, the American grid is one of the great engineering challenges of the--great engineering achievements of the 20th century. It has provided us reliable electric power, it has helped our industry grow, and yet at today's hearing we are going to get a look at what the 21st century grid might look like, but also what the transition between where we are today and what the 21st century grid is going to look like. It is going to be an opportunity and some very big challenges.    Some of the factors that I want to bring to our attention are, coal is still our number one energy producer. Produces about 38 percent of our power. And to the chagrin of some of our colleagues, that number is decreasing over time. New--natural gas is our number two energy--electric energy supplier, and that is growing rapidly. There are some challenges with natural gas. We have the distribution challenge, especially in New England States, and--but the price of natural gas is going down, or is low now because of all the abundance of natural gas. So it is a real opportunity for us. Nuclear is number three, and I think nuclear is kind of stagnant right now. That may change over time. And fourth, renewable energies. It is growing rapidly, but it is only 13 percent of our capacity, and that includes hydro. So we have--with renewable energy, there is cost competitiveness. We can produce renewable energy pretty cheaply now, but we can't dispatch it. It is not going to be there necessarily when we need it, so there needs to be some account taken to that and--when we integrate renewables into the grid. But if you look at what is happening, California is going to require 33 percent nuclear power by 2020, so we have to rise up for this challenge.    We also have the specter of climate change sitting there in front of us. It is going to require us to reduce fossil fuels, but it is also going to require us to increase efficiency. We have a need to make our grid more resilient. We are seeing that with our bigger storms now. We also have physical and cybersecurity. We want to make sure that our grid is strong, is safe. If there are physical attacks, if there are cyber attacks, if there are storms, if there are earthquakes, whatever the--nature throws at us or whatever our fellow human beings throw at us, we have to be able to maintain our grid, so this is a pretty big challenge.    There are big opportunities. I just want to tick off some technology. Some of these I don't even understand myself. We have the automated circuit breakers and feeder switches. That is going to allow us to switch problems, we can--it is just like a transistor in a radio. I mean it is going to allow us to switch back and forth, and that gives us quite a bit of flexibility. There are mapping systems that will allow us to stop grid problems from spreading from one part of the Nation, and one sector to another. We have load management tools like megawatts that are being adopted in San Francisco. We also have smart meter technology, which I helped develop for a period of years in California.    So there is a lot of technology out there, but a big opportunity is if we can provide cheap power for our customers, then manufacturing is going to be able to continue to grow and thrive in this country, and without it, we are going to be hamstrung. So this is a big challenge for Congress. It is going to require continued investment and commitment in Congress and in industry. We need to understand the big picture challenge before we do anything drastic here in Congress. We need to understand the engineering challenges. We need to put money out there so that the engineering challenges can be met. We need to incentivize that. We need to make the investment, and that means investment here in Washington, but it means also investment in our States, and it means investment by private investors. And how are we going to invest--incentivize private investors in grid innovation and grid technology, and development and grid infrastructure development if they are not sure they are going to get their money back? So we have to be able to figure that out. So this is part of the big picture challenge.    But my colleague, Renee Ellmers, and I have started the Grid Innovation Caucus. That is giving us here in Congress several members that are interested in this area an opportunity to talk about some of these issues. So--and think about the big picture.    I do have a story from my past when I developed wind energy technology, I started in the business in about 1980 when the industry was just at the beginning. And, you know, we went out there and we got an investment from some folks out there. We designed a wind turbine from a plain piece of paper. It was a wonderful experience. We put it up in the hills of New Hampshire, turned it on, had all the investors come out, turned it on, and then things started turning, the blades all flew off and everyone had to run for cover. But, you know, the investors stuck with us, and year after year we put a little bit more understanding in the blade roots, in the foundations, and the transmission, and in all engineering parts of that machine, and how, because of that kind of work, wind energy is very cost-effective, it is growing very rapidly. So you have to make the investment, you have to stick with it, and if you do, you get rewarded.    So that will be my opening statement. Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -70,54 +82,87 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman, for holding this hearing on the future of the grid. I don't know if I can be as energized as Mr. McNerney, but I did notice how energized you were and I was happy to see it.    The National Academy of Sciences has referred to the U.S. electricity grid as the greatest engineering achievement of the 20th century because it delivers critical energy services to consumers in an instantaneous, affordable and dependable manner. In fact, as a society, we have come to expect that every time we flip the switch in a dark room, light will appear. But our grid is changing as we speak. There are ever-growing demands on the grid to power our new technologies, to accept new forms of generation, while at the same time conventional attacks, cyber attacks, climate change, and other new threats require the grid to become more resilient. And the grid is now the subject of almost constant innovation and entrepreneurship as well as--as many of our witnesses are going to attest. How we unleash that innovative spirit and at the same time ensure overall system reliability is the challenge for the grid of the future.    Fortunately, advanced technologies exist to address these challenges, with substantial benefits for both the electricity sector and, in most cases, consumers. These new technologies are working smarter and promise electricity generation and delivery that is more efficient, economic and environmentally responsive. And while this transition will not be quick or easy, our witnesses today make clear that the move towards smart grid technology is already here.    Today, you can already find this technology deployed around the Nation. You can see it in the deployment of smart meters and other technologies that facilitate greater energy efficiency and cost savings, as well as in the deployment of solar and other distributed generation. These technologies will also help us move forward in the fight against climate change, providing new ways to reduce greenhouse gases emissions, while at the same time enhancing overall system resiliency and reliability.    In my home State of New Jersey, you can also see the deployment of smart grid technologies in the work DOE has done to set up a microgrid to prevent transit service outages in northern New Jersey, like the one we experienced during Super Storm Sandy. And while the movement to these new technologies is important in many cases, its near-turn adoption is not inevitable, nor is it necessarily a panacea for all the problems we face. And we will need to work with our State and local counterparts, including State regulators, to develop workable solutions. For instances, while a microgrid may help preserve power for a portion of a community during an extreme weather event, policymakers will be the ones tasked with deciding who gets the benefits of that power, and who pays for establishing the infrastructure. Similarly, the rate of adoption for many of these new technologies often depends on the incentives put in place by policymakers. For example, real time smart metering can provide consumers with critical information about their energy use during hours of peak demand, yet without the proper structures in place to encourage residential or commercial customers to use energy during off-peak hours, there is little motivation for someone to charge their electric vehicle at night instead of in the morning, or to alter their business plans to ensure others can consume electricity during the day.    And so policy questions still exist, but there is little doubt that adopting these new technologies to move us towards a smarter grid could spur benefits for consumers, our economy and the environment, and the witnesses before us today can help us navigate these obstacles to quickly realize the benefits of these technologies in a cost-effective manner. So I look forward to hearing your views.    I would like to yield the remainder of my time to the gentleman from Texas, Mr. Green.</t>
   </si>
   <si>
     <t>400160</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank my colleague for yielding to me--our ranking member colleague. I want to thank all our panelists for being here today, and I look forward to discussing this critical component of our economy.    The electrical system and grid are technological wonders, and the--it is the bedrock of our industrial and commercial and domestic way of life. When folks turn on the switch, they never question whether America's power sector will perform.    In the 20th century, we expanded rapidly, constructing lines and establishing functioning markets. The complexity and vastness of the U.S. utility transmission and distribution system is unmatched across the globe.    In the 21st century, we face challenges and opportunities from a changing marketplace. Traditional utilities face new challenge because the integration of renewable resources, implementing the new environmental regulations built on the rapid expansion of cheap natural gas. Transmission and distribution companies are looking at new dynamics of distributor generation.    Finally, consumers are increasingly savvy and informed about consumption management and household efficiencies. As legislatures, we must provide these constituents the tools required to meet the challenges and capitalize on the opportunities of the new marketplace. Today, it is my hope we can elicit some information that would help us better understand the rapidly changing atmosphere, and assist us in crafting solutions so as to remain innovative, flexible, but 100 percent reliable.    And I yield back my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. The gentleman yields back. And that concludes the opening statements.    So now I would like to introduce our panel. And once again, we thank all of you for joining us today, and we look forward to your testimony.    Our first witness this morning is Mr. Tom Siebel who is chairman and CEO of C3 Energy, also one of the founders of Oracle.    Each one of you will be given 5 minutes, then the little red light will come on when 5 minutes is up, but we won't go strictly by that red light. But, Mr. Siebel, thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Siebel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Siebel. Good morning. Mr. Chairman, thank you for the opportunity.    I am here from Silicon Valley, and I have spent the last 4 decades in the information technology business, and we have been working for the better part of the last decade to think about the problem of applying the state-of-the-art of information technology and communication technology to the value chain associated with power generation, transmission, distribution, metering, and consumption. And if we are to look at this value chain, it would be--today, it would be largely recognizable by Thomas Edison, because we are dealing with late 19th century and early 20th century technologies, where at one end of the value chain we are boiling water and spinning a turbine, OK, we are rotating a magnet within a coil, creating a voltage, stepping up the voltage to, you know, higher voltage, transmitting it over long distances at high voltage, medium distances at medium voltage. It goes to a meter and then to the consumer. This is pretty much what it looks like. And it works great until it breaks. OK, and then when it breaks, whoever, Baltimore Gas and Electric or Constellation Energy or Pacific Gas and Electric, sends trucks out with people with volt meters to climb telephone poles and go down manhole covers, to find boxes that don't conduct electricity, and they keep replacing boxes until the lights go back on. And this is pretty much how it works.    Now, this infrastructure--these--the way that utilities are operated is then tend to run these businesses of generation, transmission, distribution, metering, customer care and billing, as separate business units, and as separate business units they have these separate enterprise information systems that have been supplied over the years by companies like Oracle and General Electric and Siemens and others. There are lots of reasons we can get into some other time why these enterprise information systems don't want to communicate with one another. It makes it very difficult to share information, but let it be said that, you know, this has all been kind of driven by Moore's law. Now, this decade, worldwide, this infrastructure is being upgraded so that all the devices are becoming remotely machine-addressable, so we can remotely sense their state. The most common being the smart meter. So we don't have to send a truck out to read it once a month, we can read it once a minute or once every 15 minutes. But what is significant is not the smart meter, the entire value chain is being sensored, from the vibration sensor on the nuclear reactor to the thermostat, the variable speed fan at Wal-Mart, OK, the single phasers, the step transformers, the stepdown transformers, and the substations. So as this becomes sensored, this begins to look like a fully sensored--basically, a fully connected sensor network. A guy named Bob Metcalfe out of Xerox PARC, he invented something called Ethernet, OK, and he coined something called Metcalfe's law. So the power of that network is the function of the square of the number of nodes that are connected.    So when this is--the amount that is being invested, I don't know if I mentioned this, in upgrading this network worldwide this decade is $2 trillion. So this is the largest and most complex machine every built. The amount being invested in the U.S. this decade upgrading this infrastructure is $1 trillion. So as we do this, if we read a meter every 15 minutes, it is being read 32,000 signals a year. If we read it once a month, it is 12 signals a year. That is four orders of magnitude. Actually, we are increasing the amount of data by six orders of magnitude. So we have massive amounts of data that is being collected, and so what we can do now is we can apply the sciences of big data, cloud-scale computing, analytics, machine learning, and these new social human-computer interaction models to dramatically, you know, to optimize the entire value chain to, you know, if we balance--it reduces the amount of fuel that we need to generate by a percent. OK, if we use these technologies for predictive maintenance, we can replace devices before they fail, dramatically increasing safety, increasing reliability, we can, you know, increase the security infrastructure, and by the way, we can reduce the environmental consequences of the value chain by, say, order of 50 percent.    So this is what we are doing today all over the world. I would say that Europe is probably ahead of the U.S. as it relates to this today. We are doing this now, and now putting this in the perspective of a company based in Rome, they have 67 million meters in 40 countries, and so they are a 100-billion-euro company. It is a utility roughly the size of the U.S. market. And there, we are aggregating I think 7 trillion rows of data into an 800 terabyte cloud image. We process these data at the rate of 800,000 transactions per second, OK. Apply machine learning to optimize the value chain and the economic benefit to do this across the world is 6.3 billion euros a year. We are doing this at Exelon. The economic benefit to them, $2.7 billion. This is the economic benefit to their consumers. Baltimore Gas and Electric, Pacific Gas and Electric, Socal Edison, Commonwealth Edison, we are doing--GDF Suez, so we are doing this all around the world today. This is what will make the smart grids smart, is the information technology, the ability to apply big data, analytics machine learning, and new human-computer interaction models. And the economic, social and environmental benefits are significant. So this is the exercise upon which we have been engaged, and it is fascinatingly difficult and fascinatingly exciting.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Well, thank you very much.    And our next witness is Mr. Dean Kamen, who is the Founder and President, inventor and--also, but he is the Founder and President of DEKA Research and Development Corporation. And, Mr. Kamen, thank you very much for joining us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Kamen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kamen. Thank you, Mr. Chairman, and I think everybody here knows we are not here to talk about whether there will be disruptive change in the grid, but how it is going to happen and hopefully how to make it happen in the best possible way.    Though we are here to talk about energy, I am a technology guy and I thought a very quick review, and it will be a very quick review, of a few other industries that were dramatically transformed at the intersection of new technologies that were properly embraced to take over from old systems that suddenly seemed inefficient and terrible. So as an example, I will give you computing. We all grew up, I think, with big computers that sat some place and, you know, the average kid today doesn't know about what Mr. Watson and his company were about, they have tablets and cell phones, and they changed an industry and they wiped out an old infrastructure. There were interestingly three major infrastructures that were built in the 1880s--were established in the 1880s; photography, communications, and energy.    So quickly, looking at this one, Alexander Bell in the 1880s decided we can let everybody talk to everybody, all you needed was a wire from your ear to anybody else's ear. And it took about 100 years to build up that massive infrastructure. Then the technology came along, and that was really neat. Most kids don't know that a house has a phone. You have a phone. And technology like wireless and cellular and fiber optics have just transformed the communication industry, I think we would all agree, for the better.    Photograph, again, in the 1880s it was a wonderful thing. We all remember our Kodak moments. We remember we could get that stuff to actually develop in only one day. You ask the average kid for a selfie today, they don't know what film is, and the Kodak moment is--Kodak is history, it is a memory. So it is because technologies came along that were just breathtakingly better.    What about energy. That is what we are here to talk about. Well, in the 1880s there was this guy Edison and Tesla, and they gave us big centralized plans, like Ma Bell, photography, what do we know about that great model that we have already heard is from virtually everybody out there and the first speaker, it is 150-year-old architecture. What do we know about it? Is it ready for disruption? Well, it is old, it is inefficient, it is unreliable, it is expensive, and it is dirty.    Quick facts about what the grid is today. We have about 1 terawatt, 1,000 gigawatts, of production capacity at an average of $1 a watt to produce that. That is $1 trillion in generation assets. Well, more than 50 percent of that stuff is 30 years old, and if you only replace the stuff that is that old at $1 a watt, it is $500 billion. Once you make that energy, you have to move it. And you just heard, at high voltage, transmission lines, they cost about $1 million a mile, and oops, sometimes they are not quite what we would like them to be. And 70 percent of those things are 25 years old or more, and there are 280,000 miles of that high voltage stuff, so if you replace the really old stuff, it is another $200 billion. Then you have the low voltage stuff in all your neighborhoods. Wires hanging on wooden poles. What could possibly go wrong? So those things are a real deal, they are only $140,000 a mile, and there are 2.2 million miles of that stuff and 50 percent of that is at least 30 years old. And if you just replace the stuff that old, it is another $150 billion. And then, of course, you have the annual capital cost of that infrastructure. Now, that is $90 billion is what we are spending in this country right now to keep that architecture operating, and we have all heard how critical it is, but by the way, that $90 billion, that is not one drop of oil or one pound of coal, that is just to keep that system up.    So is there a better, more efficient way to do to this industry what has happened to communications, for instance? I think so. Everybody loves solar panels, and I think you will hear from this whole panel, between solar panels, battery technology, wind technology, controls technology, megawatts, all of these things are going to change. The question is how do we catalyze them to work together instead of frustrate each other, both technically and in a regulatory environment.    Well, everybody I know loves solar panels. Very few people I know have put up enough solar panels that they have disconnected themselves from that grid that we all complain about. It is our lifeline. So how do you catalyze more people to do this? Well, the more you put those up without doing something else, you are actually hurting the grid because they add instability, unless you add good technology, and they lower the amount of power coming through the grid, but the models by which the grids are funded is by selling electricity. The more of this stuff you put up, it is a competitive perverse alternative to the grid. You have to do something that can catalyze this stuff to happen in a way that helps everybody, including the people supplying the power. So we said, why don't we make an appliance, like all the other appliances in a house, that might help. This appliance makes 10,000 watts of electricity. We call--it is a sterling thermal technology. It is about as quiet literally as your hot water heater or your furnace, and the ones that we have made now 20 of, and placed them with a great visionary partner, David Crane, the chairman of NRG, have already produced 300 million watt hours of power directly where it is needed in places where we can also use the waste heat because after all, it brings the same fuel as your hot water heater. 100 million of those things could produce as much power as the whole grid. I don't think we need to go that far, but is 100 million a lot? No. Americans have 140 million appliances bigger than this. Much more relevant, they have 117 million hot water heaters and 182 million furnaces, together that is 200 million appliances that use exactly the same infrastructure as us, except we will make your electricity and your heat. Where else could you put these things? This is why I think it can work to make the grid a great new future. Don't put them in the houses, put them out on those transformer pads. By the way, there were 40 million of those transformer pads sitting there now between the grid at that last stop and the user, and it is close enough to the user that we can still recover the heat, so we said put them out there, you lower the installation cost, you will make them easier to service, you will get higher efficiency, higher reliability, because houses can share them. Neighborhoods can start putting these things in under an intelligent control plan, and as you put a bunch of them near a set of houses, you don't need another one of those wooden poles with the wires draped through your trees. You put enough of those neighborhoods together, you don't need that substation. Over the next few years you, in a controlled way, get rid of enough substations, you start eliminating transmission lines, and finally you eliminate the power plants that aren't the efficient ones, and then America has a bright future.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Marvelous. Thank you, Mr. Kamen. We appreciate that.    Our next witness is Mr. Michael Atkinson, who is the President of Alstom Grid, Incorporated, who is testifying on behalf of GridWise Alliance. So you are recognized for 5 minutes, Mr. Atkinson.</t>
   </si>
   <si>
+    <t>Atkinson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Atkinson. Good morning, Chairman Whitfield, Ranking Member Rush, full committee Chairman Upton, and Ranking Member Pallone, Congressman McNerney, and distinguished members of this subcommittee. I am Michael Atkinson, President of Alstom Grid, Incorporated, and also I am here on behalf of the GridWise Alliance. I appreciate the opportunity to testify at today's hearing.    The U.S. electric system is undergoing a transformation unlike anything we have experienced in the past 100 years. This transformation will create opportunities to enhance reliability, efficiency, resiliency and security of the grid. The grid will continue to serve as the backbone of the Nation's electric infrastructure. It will enable innovation to flourish, and the supply and demand of electricity across the transmission and distribution networks, all while continuing to provide safe, affordable, reliable power.    The future grid will optimize the management and operations of the entire electric system value chain, which includes power generation, delivery and consumption. For example, new smart grid technologies help to enhance situational awareness, prevent outages, accelerate restoration, and--in the case of extreme events, and also integrate distributed energy resources. In addition, other technologies--other related technologies and capabilities such as energy storage, power electronics, and microgrids will also improve the performance of the grid.    The Electric Power Research Institute has estimated that the total benefit of smart grid is in the trillions of dollars. More importantly, for every dollar invested, $2.80 to $6 in benefits are realized.    GridWise and DOE's Office of Electricity work with hundreds of public and private stakeholders to develop a shared vision for the grid, which includes the following. The grid will be the key component of the future electric system. This system will include both central and distributed generation sources. Powering communications will flow in multiple directions. Residential, commercial and industrial customers will use the grid in different ways, becoming both consumers and producers of electricity. This will help achieve the following three outcomes to accelerate the transformation to the 21st century electricity system. First, building on this shared vision, enable policies to ensure the markets, regulations, and new technologies are all aligned. Congress can exercise its leadership to facilitate ongoing and new public-private collaboration to achieve the grid of the future. Second, the pursuit of this future grid will continue to spur innovation and attract ideas, talent and resources from a range of industries. And I think you only need to look to my right to see that. Third, create additional highly skilled jobs. The transformation of the grid will necessitate advanced skills to implement these technologies.    In conclusion, we have an important opportunity to accelerate the modernization of our Nation's electric grid. This will drive economic growth, strengthen our global competitiveness, and create highly skilled jobs. Action is needed now because this is a complex issue, and the technology and policy changes required could take years to implement. I want to underscore that access to a reliable, efficient, resilient and secure grid is a major source of our Nation's competitive advantage. Congress can play a key leadership role in facilitating the acceleration of grid modernization, and ensuring that we maintain this competitive advantage into the future.    Mr. Chairman, thank you for the opportunity to testify. I look forward to any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Mr. Atkinson.    And our next witness is Mr. Christopher Christiansen, who is Executive Vice President, Alevo Energy. And you are recognized for 5 minutes, Mr. Christiansen.</t>
   </si>
   <si>
+    <t>Christiansen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Christiansen. Thank you. And, Chairman Whitfield, Ranking Member Rush, and members of the committee, thank you for inviting me to testify on behalf of Alevo, Inc. You will hear from me today how Alevo believes that energy storage will play a crucial role in ensuring a secure, reliable and modern electricity system.    I will also discuss how Federal policymakers can help to accomplish this goal by reducing regulatory barriers to the development of energy storage to benefit electricity ratepayers and consumers.    My name is Christopher Christiansen, and I am the co-founder of Alevo, and I serve as the executive vice president of the Energy Division, which means I am responsible for all the energy daily activities, which include production design, business development, and sales strategies. I am also overseeing the development of over 200 megawatts of battery energy storage projects, which we are implementing in the next 12 months.    Alevo is a leading provider of energy storage systems designed to deliver grid-scale electricity on demand. Alevo couples grid analytics with our innovative battery technology, the Alevo GridBank. Alevo GridBank features a nonflammable, long life inorganic battery that enables a new source-agnostic architecture for electrical grids that reduce waste, greenhouse gases, create efficiencies and lower costs for the world's energy producers and their consumers. Our mission is to maximize the value, availability, usability and cleanliness of electricity to better serve mankind and the environment.    Alevo's manufacturing plant is located in a former cigarette plant in North Carolina in Concord, in the district of Congressman Hudson. We are on track to employ 500 people in 2015, and we expect to employ over 2,500 by the end of next year. We are also set up for significant growth, as Congressman Hudson knows, because we have a 3 \\1/2\\ million-square-foot facility that can, at full capacity, produce 16 gigawatt hours a year. Within the next 12 months, we are manufacturing and commissioning more than 200 megawatts of energy storage batteries.    Alevo is building a vertically integrated manufacturing and deployment organization, creating a global energy storage business to work with the world's leading and largest energy companies.    The electric grid is the only system of production that has not had a way to store its product efficiently. Energy storage changes that equation, allowing us to store that electric production and then use it when we need it, where we need it, and at the best price. Energy storage technologies, like the battery Alevo is manufacturing, will change the way our electric grid works, to enable greater efficiency of our existing generation fleet by optimizing heat rates, reduce ramping, to allow for increased resilience and reliability of the system, and to lower the cost of electricity for every consumer. Additionally, the increased efficiency provided by storage lowers emission and water usage, 2 important and environmental benefits realized without adding cost to ratepayers.    According to market research firm, IHS, energy storage growth will explode from 340 megawatts in 2012 to 2013, to 6 gigawatts by 2017, and over 40 gigawatts by 2022. To put that in perspective, 40 gigawatts is equivalent to 40 new coal or gas fire power plants, and it is enough power to power a home--over 32 million homes for 1 hour. This explosion would create jobs in manufacturing, as with Alevo, right here in the U.S., allowing us to put our innovation to use to the benefit of the electric grid and consumers.    As the theme of this hearing suggests, energy storage technologies like Alevo's GridBank will secure a reliable and modern electric grid. The 21st century grid will be exposed to increased generation from variable sources, and also increased fluctuations in load. States hit by Hurricane Sandy, like New Jersey and New York, are already building these technologies into their resilience plans to ensure that emergency services are kept functional during catastrophic events. Even during ordinary power blips or outages, energy storage can help a system and its consumers ride through those events seamlessly. Southern California Edison recently issued a series of awards to accommodate local capacity requirements for their electric customers. They were required to consider 50 megawatts of storage; instead, they awarded 50--sorry, they awarded 260 megawatts of storage, since it was competitive and provided the flexibility the utility needed for the system. As utilities and system operators consider their needs both now and in the future, and with the right policies in place, more and more energy storage is being deployed, decreasing the perceived risk inherent in new technologies, and reducing the cost of those technologies through increased scale. Alevo is positioned to drive down those scales--those costs even further with the manufacturing of hundreds of megawatts of energy storage capacity in the first year alone. One key policy that this committee can change is to reduce regulatory barriers for energy storage facilities, including exemption for Federal and State regulations in the same way those barriers are currently used for qualifying coal generation facilities. Congress could also ask FERC to valuate the value generated by energy storage, and ensure that FERC's current policies recognize and award those values.    I look forward to addressing any questions the committee has about Alevo and our innovation, or about energy storage technologies more generally. And I thank you for the opportunity to present this testimony.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Mr. Christiansen.    At this time, I would like to recognize Mr. Joel Ivy, who is General Manager of Lakeland Electric, who is testifying on behalf of the American Public Power Association. You are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Ivy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ivy. Thank you, Mr. Chairman. Good morning, everyone. I bring you warm greetings from sunny Florida.    The American Public Power Association, based in Washington, DC, is the national service organization for the more than 2,000 not-for-profit community-owned electric utilities in the United States. Lakeland Electric in Lakeland, Florida, is an APPA member, serving approximately 122,000 customer accounts in central Florida for the past 110 years. Like other public power utilities represented by APPA, Lakeland Electric was created to serve the needs of its local community by providing low-cost, reliable electric service on a not-for-profit basis.    Public power utilities have been improving our grid-based technologies for some time now. As fiber optic systems started to become more prolific, the application of smarter tools and equipment became truly viable. Together with newer wireless technologies, we have been able to greatly expand access to information, perhaps like never before.    I will discuss initiatives being, excuse me, under--I will discuss initiatives being undertaken nationwide by public power utilities related to grid innovation, but focus the bulk on my testimony on what Lakeland Electric has done and why. I am defining grid innovation as including deployment of smart meter technologies and communication systems to support those and other technologies, deployment of distributed generation, or DER, distributed energy resources, including storage. Increased real- and near-time real-time monitoring of power systems, which enhances situational awareness, and management of the big data being accumulated through the use of smart grid technologies. In addition, I want to discuss briefly some of the challenges to deploying these technologies, including cybersecurity.    So the deployment of AMI, or automated metering infrastructure, is significantly more mainstream than a decade ago. It has become almost the default choice for upgrades to meters, leaving on the question of using fiber or wireless, or in Lakeland's case, both. This effort was kick-started with Federal grants and loans, of which my organization was a proud recipient. In fact, we completed our deployment in 2013, and are now offering customer access to their information via our Web portal, and have some creative alternative rate programs for earlier adopters to use to save money and energy in their homes and businesses.    The APPA and Lakeland are generally supportive of distributed energy resource technologies, such as rooftop solar, but the concepts of rate programs that will continue to spur this investment, while allowing utilities recovery of our fixed cost, is among the fastest growing issues in our industry. Excuse me. Net metering in some locations such as Lakeland provides a customer credit based on the full retail rate, which may allow customers to reach a net-zero bill on an annual basis. Changes to our rates must not punish the early adopters who invested in older, more expensive solar technologies. At the same time, we must ensure utilities have proper revenue to recover the cost of our poles, wires and generators. This rate design issue is going on appropriately at local and State levels across the country, including in Lakeland.    Regarding distributed energy resources, utilities are also concerned about customers having access to good information that allows them to make sound decisions without future regrets. Business practices that may be leading to the provision of erroneous information to customers, including information provided by certain solar leasing companies related to the payback of the leases, which are in turn being tied to unrealistically high assessments of annual electricity price increases, are at the heart of our concern.    The future construct of the smart grid is full of unknowns as we look out longer into the future, and continued Federal support for funding innovative projects will be very important as our Nation's entrepreneurs provide the newest and best support equipment and processes.    Finally, Lakeland--Federal, State, and local collaboration is essential to maintaining physical and cybersecurity. While Lakeland has adopted cybersecurity as an essential business practice, the collaboration with governments at all levels remains a critical component, particularly related to information sharing.    In summary, public power utilities like Lakeland Electric are deploying a variety of technologies to optimize a grid for more efficient and reliable service. In so doing, we worked very collaboratively with our customers, our policymakers, and our communities to determine what is most appropriate at the local level. The Federal Government can help in terms of targeted grants, and research and development, as well as in the area of cybersecurity, by sharing actionable and timely information with the industry.    Mr. Chairman, thank you for allowing me to be here.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Well, thank you, Mr. Ivy.    And at this time, I would like to recognize Mr. Paul Nahi, who is CEO of Enphase Energy. And you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Nahi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nahi. Thank you, Mr. Chairman. Chairman Whitfield and fellow subcommittee members, than you for the opportunity to testify at the Subcommittee on Energy and Power's 21st century electricity challenge hearing.    Enphase Energy provides solar energy solutions for the residential and commercial market, as well as energy services for utilities. Through the most sophisticated power electronics and communications technology in the world, we are able to bring a level of visibility, intelligence and control to our solar systems, which are deployed in over 80 countries. This has enabled us to leverage our solar assets to help strengthen and increase the resilience of the grid, while providing clean, affordable energy for our customers in the U.S. and all over the world. A public utility company located in the San Francisco Bay area, Enphase has grown to over 600 employees since 2006, and plans to employ over 750 employees by the end of 2015. Our products are now installed by tens of thousands of workers across the United States each day. We have a profitable business, and continue to invest in new technologies and new markets to enable more consumers to enjoy the benefits of clean, affordable energy, while helping our utility partners strengthen and stabilize the grid. In doing so, we are creating both blue- and white-collared jobs in our country, and creating competitively priced products that make the United States a global leader in our technology class.    Our advanced technology solutions turns solar systems into assets on the grid, and our energy management system addresses the grid's needs via our intelligent communications technology. In fact, we just completed an upgrade with a utility partner to remotely modify the operating characteristics of thousands of solar systems to substantially strengthen their distribution and feeder networks. In essence, we enable solar systems to observe and then respond to the potential grid issues, thus increasing its reliability. By optimizing the grid in this manner, we can either delay or eliminate significant capital costs, thereby reducing cost for consumers.    As is implied by our product offering, it is clear that our number one job at Enphase is to help provide clean, affordable energy, while increasing grid stability. At the same time, we recognize the urgent need to increase the security of our energy supply. Energy security is fundamental to the health of our country. It is also a specific focus of this Congress. It must be recognized that new, clean energy resources can play a significant role in enhancing our energy security. Solar and wind are abundant and limitless, and it is our responsibility to harness these resources responsibly. That said, Enphase and others in this new energy economy will play a fundamental role in ensuring the energy security of our country. The technologies we develop leverage years of innovation in the semiconductor and information technology markets, and include many of our own advances. Because of this, each system we ship is embedded with the most advanced security protocols, and can be remotely updated as necessary to prevent new cyber threats. We take our role as a though leader in the energy security seriously, and believe this arena will become increasingly critical over time.    In order to ensure that our efforts to provide clean energy to consumers, while strengthening the resiliency and security of the grid, continue unabated, we must also maintain our relentless pursuit of more cost-effective solutions. Providing clean, secure energy is not enough. We must make it affordable for everyone. We have been able to dramatically lower the cost of our solar solutions, and are now applying the same technology to storage, where we also expect to see a dramatic decrease in costs. The same processes and semiconductor technologies used for developing and scaling the consumer electronics market are now being applied by Enphase to the renewable energy market. Technologies like the Enphase energy management system have the ability to realize significant cost reductions through economies of scale and continued innovation. It is my opinion that solar and other energy technologies will play a fundamental role in the new energy economy as a result of our ability to innovate and scale, resulting in highly cost-competitive, reliable and secure energy generation.    Enphase Energy is built on a foundation of collaboration. We believe that a health industry lifts all market participants. We have no doubt that the creation of a new energy economy will result in hundreds of thousands of new jobs for Americans, and we are looking forward to enabling those interested in participating in this industry to make a smooth and successful transition. The result will be a strong and vibrant industry, abundant access to clean, affordable energy, a large, well-paid workforce, and a prosperous future for all Americans. The success of our company and other new energy participants is a testament to the increasing demand for affordable, clean energy, and we do not expect this to subside.    That said, I believe our role as job creators now and in the future cannot be underestimated. With this role comes the responsibility to help others transition to this new and growing industry. We must recognize the amazing accomplishments of those in the industry who carved the path before us, and provide the support necessary to enable them to participate in this new energy paradigm.    Lastly, we aim to remain competitive internationally to ensure the United States retains a position of leadership in the world's energy ecosystem.    I appreciate the opportunity to testify before this committee, and look forward to working with Congress as we continue to add jobs, increase grid stability, protect our citizens against cyber threats, and ensure the United States maintains its position as a global technology leader. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you.    Our next witness is Mr. Naimish Patel, who is the CEO of Gridco Systems. And you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Patel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Patel. Thank you, Mr. Chairman, and the other distinguished guests or congressional members of this committee.    This is an important topic we will be speaking about today. My name is Naimish Patel. I am the CEO of Gridco Systems, a leading provider of agile grid infrastructure, that is consisting of advanced control and power flow technologies for the electric grid.    Since the Pearl Street Power Station first went online in Manhattan in 1882, the electric grid in the U.S. has become pervasive in its reach, essential to the sustainable growth of our economy and national security, and a services platform that we have become intimately reliant upon, yet often take for granted; all testament to the work of the numerous utilities that maintain and operate our grid.    Today, however, utilities are operating in a changing environment that poses a wide variety of challenges, but also opportunities for innovation. Much as our telephone system experienced a transformation in the 1990s, catalyzed by customer adoption of computing and demand for information services, so too are we seeing the beginning of a customer-driven evolution of the electric grid. Consumers of power are increasingly also becoming producers, through adoption of rooftop solar or small-scale wind power, requiring the distribution grid to accommodate two-way power flow for the first time, counter to the assumptions underlying its original architecture. Customer adoption of electric vehicles is creating new demand for power, each vehicle equivalent to entire home while charging, requiring new utility demand control measures to avert overloading existing infrastructure. Customer adoption of energy efficiency measures and home automation offer new resources that utilities can potentially harness for systemic benefit, blurring the nature of the relationship between utility and customer. Finally, increasing diversification of customer demand is creating stress on regulatory frameworks that have traditionally been oriented towards one-size-fits-all power delivery. All of these changes are compounded by the fact that centralized base-load generation and transmission capacity are growing tighter, and increasing volatility in global weather patterns is driving the need for higher levels of grid resiliency. In the face of these challenges, utilities must continue to deliver on their fundamental mission of supplying safe, reliable, and affordable power, while also introducing system flexibility in order to be adaptive to a more dynamic and diverse demand/supply environment. Emerging at this intersection of requirements is a historic opportunity for regulators, utilities and technology suppliers to jointly innovate.    Not surprisingly, given the aforementioned trends are occurring at the edge of the grid where customers connect, the electric grid's distribution system is on the forefront of change. Historically, investment in the distribution system has targeted upgrades of wires, poles and transformers; what is typically referred to as grid reinforcement. While these investments in grid capacity are indeed necessary, the flexibility to accommodate a more dynamic demand/supply environment relies on investment in infrastructure that can efficiently utilize existing capacity in order to curb costly grid reinforcement and, thus, electricity rates, while assuring reliable delivery of power under rapidly changing conditions. Much as the Internet is based on devices that actively and dynamically manage the flow of information across fiber optic or copper wires, the electric grid will increasingly require devices that actively and dynamically manage the flow of power, all under the control of a reliable, secure and scalable grid operating system. Fortunately, the technology building blocks needed to provide these functions are available, and at the cost, efficiency, and reliability metrics expected of electric utilities. Advancements in power electronics technology borrowed from hybrid and electric vehicles, wind convertors and solar inverters, can now be leveraged to provide dynamic regulation and routing of power flows at utility scale. While ruggedized distributed controllers, coupled with advanced networking techniques borrowed from the telephone sector, enable an emerging grid operating system to manage both utility and customer-owned assets, including power regulators, distributed energy resources, and home automation gateways, amongst many others. These core functions make the grid not just smart, but agile. It is brains and brawn in combination, or smarts in conjunction with action, that underlies agility, and most importantly, provides for a strong, standalone business case.    We at Gridco Systems are singularly focused on providing these essential building blocks of the agile grid. We are working with utilities throughout the Nation in deploying our empower solution to address the challenges of today, while providing the foundation to adapt to the challenges of tomorrow. Strong economics drives our customer engagement process. Gridco's focus is on delivering solutions that are more cost-effective, and delivering more compelling benefits to cost ratio than business-as-usual approaches, avoiding the need for subsidies and rate increases. As such, many utilities are able to leverage existing budgets to implement our solutions to address DER integration, increase asset and capacity utilization, improved energy efficiency, and deliver higher power quality, all justified on the fundamental economic benefits rendered.    Technology availability is currently not the limiting factor in driving modernization of the electric grid. Missing are the financial incentives for utilities to invest in new technologies to address diversification of customer demand. And to be clear, I am not suggesting that use of subsidies. The cost of service-based regulatory compact that has guided the evolution of the distribution system since the Public Utility Holding Company Act of 1935, has proved highly effective during times of simultaneous load growth, relatively uniform customer demand, and increasing economies of scale and supply. Such macroeconomic conditions generally present from the 1930's to the 1980's, maintained low electricity rates and reliable service for end customers, while strong predictable returns for investors. Over the last 2 decades, however, average load growth in the U.S. has slowed, becoming less coupled to GDP growth, owing in part to the adoption of energy efficiency measures, and also to an increase in the service orientation of the U.S. economy. Nevertheless, the reliable operation of the electric grid is as critical as ever to those customers--to our growth of our economy, and as such, continued investment is essential, but without rate increases for those customers whose use of the grid has not changed. After all, changes in customer use of the electric grid are by no means universal, at least at present. Customer adoption of rooftop solar, energy efficiency measures, and electric vehicles tend to be highly demographically correlated. As such, a minority of end customers, albeit a rapidly growing minority, is demanding something new of the grid, yet, the cost to accommodate them are socialized across the entire customer base under currently regulatory structure. Further compounding this is the fact that such customers may even pay less into the system, owing to their lower consumption of energy. Let us be clear; we want the grid to accommodate such customers. Their behind-the-meter investments are driven by basic economics that are only getting stronger. However, the revenue a utility realizes from these customers must reflect the actual cost of service to accommodate them. Fundamentally, not all customers are alike, and electricity rates structures must not only start to account for diversification of customer demand, but indeed, incentive--incentivize utilities to supply such demand.    Conversations among State regulators, utilities, suppliers and other stakeholders are occurring throughout the Nation on how to evolve rate design to better align utility revenues with their underlying costs.</t>
   </si>
   <si>
@@ -226,6 +271,12 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Shimkus</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you. Sorry for bouncing back and forth. I have another hearing upstairs, and met with the funeral home directors, and so we are trying to do multiple things at once.    Mr. Kamen, it is great to see you. Charlie Bass, it is good to see you. Secretary, good to see you back in the crowd.    FIRST Robotics. I will do the plug, right? We talked earlier, so the actual--the championship is in St. Louis, Missouri, which is right across the river from where I live. We follow it very, very closely. Thank you for that because now, it has gone not just into high school, but in the middle schools and in the grade schools with the Lego thing. And our Christian Dade School that I graduated from, my wife teaches at, they are all in it, and it is a great thing that you have started and I want to give that plug here.    Also, I would like to go on just the issue, I know you have a great diverse background as an inventor in the medical field, insulin pumps, dialysis, why are you interested in this energy debate?</t>
   </si>
   <si>
@@ -283,6 +334,12 @@
     <t>400320</t>
   </si>
   <si>
+    <t>Pitts</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pitts. Thank you, Mr. Chairman. Thank you for your testimony. Good to see you. Charlie Bass, the Secretary, welcome.    Mr. Atkinson, please tell us a bit about your R and D process, how does Alstom Grid go about bringing R and D to the market?</t>
   </si>
   <si>
@@ -316,6 +373,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair. And welcome to our panelists.    A number of you have mentioned in your testimony the increased role of customer involvement in the current operation of the grid, and the prospects for much more involvement in the future. Of course, this represents a significant departure from the mostly passive role that the average consumer plays now. They receive a bill and they pay it. If the power goes out, they call their local utility and report it. Now, consumers are also producing energy, and their ability to refine and manage their appliances and sources of energy are expanding. This is certainly part of what the smart grid is all about.    You all mentioned the need for better information to go to consumers about their choices, and to educate them about how all this is going to work. How are utilities approaching this given phenomenon? Anyone? Yes, Mr. Siebel?</t>
   </si>
   <si>
@@ -349,6 +412,12 @@
     <t>412487</t>
   </si>
   <si>
+    <t>McKinley</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman.    I thought that when we came here, the hearing was the ensuring a secure, reliable and modern electric system, and I thought by extension, we were going to be talking a lot more about the grid, and I have got more confused as I have heard all this discussion. It is much like, you know, I am an engineer by training and, by virtue of that, I suppose I can take on the lawyers in the room, because you ask 100 lawyers an opinion on something, you are going to get 100 different opinions. So I am curious, I have heard very professorial comments, very in-depth, your white papers that you have all developed about this topic, but I wonder whether or not we have been able to reach America with the story, because we have been talking about source agnostic architecture. We have even heard about balkanizing. We have heard about platforms, we have talked about polar vortexes. Mr. Kamen, you were about as close to talking to the American public as I have seen in this panel. One thing I have learned in Congress in my 4 years here, that we have trouble when we are confronted with more than one option, and I haven't heard the option. I have heard seven or eight different themes of where we should go, and I am really trying to get to a point with the grid of what is--and the folks on the other side, they all keep talking about consensus, so I will take their word. Is there a consensus of where we should go to develop grid reliability, because what we have not talked about is the public's resistance, the public doesn't want--``don't put that high-tension line over my property, not in my back yard''. We haven't talked about electromagnetic pulse, the threat to our grid reliability with that, because we know that is a serious challenge. We have talked about the fact that we have had briefings, I don't think I am breaching protocol here, but we can shut off someone else's grid in another country, and they can shut off our grid, because we have that capability. There was just some mention slightly about the EPA regulations and shutting down some of our powerhouses that when we had this polar vortex, that we are now leading to a point that we came within, what I was told, 700 megawatts of having a brown-out last winter. That is really threatening. I don't know whether people across American understand, that is really just one powerhouse, 700 megawatts.    And then the option of the age issue, I would like for you to just explain in terms that we don't use here in the beltway for Mildred Schmidt to understand, what does that have to do with what--tell me a little bit more about the age because we have waterlines and sewer lines, and buildings and roads and bridges that are far older than 25 years. Why should I be worried about electric grid--why should I be worried about the electric power lines being 25 years old? So with that, I would like to hear, is there a consensus of where we should go, where Congress should be putting its first priority in getting greater reliance or dependability, or are we just kind of talking abstract again? Is there a consensus? Mr. Kamen.</t>
   </si>
   <si>
@@ -400,6 +469,9 @@
     <t>412209</t>
   </si>
   <si>
+    <t>Loebsack</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loebsack. Thank you, Mr. Chair. Thank you for having this very, very critical hearing today, and thanks to all of you for being here. I really appreciate this very much.    I am new on this committee, on the larger committee. I am new on the subcommittee, but I have been dealing with these issues, especially in rural Iowa, since I have been in office since 2007. Trying to get my head around all of this. It isn't all that easy, as you might imagine as well, because all of you are kind of coming at this from different angles and what have you. But, you know, clearly, the idea of the smart grid makes a lot of sense. The whole idea of the--of an individual sort of having more control over how they use energy, the amount of energy they use and all, I mean I get my, you know, monthly utility bill, it tells you sort of in a macro-sense how much I have used, but that is not nearly the same as being able to control, you know, time of day and all kinds of things much better than I am able to do now, so I really appreciate that. And I do believe in individuals taking their own responsibility for their decisions.    And we see in Iowa, for example, we do see a lot of wind turbines, you know, at farms, and solar panels powering, you know, hog farms, for example. I mean there is all kinds of stuff like that going on around this country, and around the 24 counties in my congressional district. It is really quite fascinating to see how this is all going. And the local RECs are kind of coming onboard more on solar, and some of these alternative energies as well. So it is really pretty exciting, and I am glad that Mr. McNerney was excited because--I am not quite as excited, but I am excited about all this, and sort of where we can go from here.    You know, Iowa, traditionally, we were a coal State, not unlike parts of Illinois where Congressman Shimkus is from. John L. Lewis, actually, is from Iowa, long ago. But we have made this transition in many ways. I like to remind people that 27.3 percent of our energy in Iowa is wind-generated. We have a heck of a lot of wind energy in Iowa. Now there is big controversy about building a transmission line across the State carrying, you know, energy that is not necessarily generated in Iowa, but in other places, over to other markets to the east of us. But we are really making tremendous progress when it comes to renewables, there is no doubt about that.    But I do want to ask kind of a general question. Anybody wants to answer this. And keeping in mind that if I get--if that takes my time--I want to come back to you, Mr. Kamen, especially the German issue and some things you were talking about, and if I don't get to that then we will do it for the record, if that is OK. Thank you.    So, you know, I am from a rural area. We have a lot of challenges. We have natural disasters. Aligned Energy said they lost 6,000 poles in February of 2007 when we had this massive ice storm. And I guess if you could be as specific as possible, how do we look at making sure that we get sufficient energy--continue to get sufficient energy to the more rural areas in places like Iowa and other places? I know it is a general question, and it is a big challenge to answer that question, but I want to open that up to anyone. You are nodding, Mr. Kamen. I don't want to be preferential here, but you are nodding like you do want to answer that question.</t>
   </si>
   <si>
@@ -451,6 +523,12 @@
     <t>412256</t>
   </si>
   <si>
+    <t>Latta</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Latta [presiding]. Well, thank you very much. The gentleman yields back. And the Chair recognizes himself for 5 minutes. And I apologize, there is another subcommittee of the full committee running at the same time as this, but I tell you, this is a very, very important issue and I really appreciate the testimony that you all submitted today, and also being here today.    And, Mr. Siebel, if I could start with you, how do the kinds of energy analytics you have described help us with energy security and reliability?</t>
   </si>
   <si>
@@ -469,6 +547,12 @@
     <t>412460</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Mr. Kamen, you testified that advanced grid technologies offer a promising future for U.S. electric systems, but the immediate challenge is to develop the appropriate business models and regulatory structures to effectively manage the integration of modern technologies. Do you have any recommendations as to what these business models and regulatory structures might look like?</t>
   </si>
   <si>
@@ -532,6 +616,12 @@
     <t>412568</t>
   </si>
   <si>
+    <t>Mullin</t>
+  </si>
+  <si>
+    <t>Markwayne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman.    I want to start with Mr. Ivy, and I know these two may not actually go together, but in practical and legal terms, which those are the two I am talking about, is it better for the development of advanced grid technology to be managed at the local or State levels?</t>
   </si>
   <si>
@@ -586,6 +676,12 @@
     <t>412485</t>
   </si>
   <si>
+    <t>Griffith</t>
+  </si>
+  <si>
+    <t>H.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much. Wow, what a great panel you have put together, Mr. Chairman. It has really been a very educational morning. I have been here since the beginning, so I can say that you all have been very helpful in educating me. I happen to be one of the few members of this committee that is one of those evil lawyers everybody talks about, so I need lots of help in understanding these things. But I am concerned about privacy issues, and, Mr. Ivy, your company has some smart meters, as I understand it, and you all have an opt-out provision. Can you tell me what that is important to your customers?</t>
   </si>
   <si>
@@ -665,6 +761,12 @@
   </si>
   <si>
     <t>412457</t>
+  </si>
+  <si>
+    <t>Ellmers</t>
+  </si>
+  <si>
+    <t>Renee</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Ellmers. Thank you so much to my colleague, and thank you for this panel. This is awesome. And, Ranking Member McNerney, I don't know if he had mentioned, because I had to step out, that we co-chair the Grid Innovation Caucus together, and we are very, very excited and energized, no pun intended, on this issue and all of the significance of it.    And, Mr. Kamen, I can't agree with you more, when it comes to thermodynamics and then when you are talking about what we do here, it makes absolutely no sense. You are talking about logic and facts, and unfortunately, many times those things do not fit into what we do here, unfortunately. So, you know, it is so funny, I have my list of questions and I have changed up, you know, as I am listening to the conversation because I want to ask everything and, obviously, I can't.    I do want to get to the question of the hurdles that are in place, that are standing in the way of us moving forward with more of the grid innovation, and how do we pay for this, what do we do, how can we do a better job as legislators just being able to tell your story and the advancements that can happen. You know, I just believe that when we are talking about energy, and long-term energy policy for our future of this country, we have the grid technology as a part of that conversation. It is just so vital to our future.    You know, Mr. Atkinson, I just want to go back to the conversation we have been having about the, you know, how we incorporate analytics into everything that we are doing, and obviously, that is a big part. As far as your ability to improve the way you forecast how energy will be used into the future, and the supply that is needed, are your companies incorporating these things, do you have that capability, and are there metrics in place now where we can start measuring the efficiencies and the improvements?</t>
@@ -1076,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,7 +1186,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,5573 +1208,6470 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G57" t="s">
+        <v>85</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G59" t="s">
+        <v>85</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G65" t="s">
+        <v>85</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G75" t="s">
+        <v>106</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G77" t="s">
+        <v>106</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>39</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G79" t="s">
+        <v>106</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G81" t="s">
+        <v>106</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G83" t="s">
+        <v>106</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G85" t="s">
+        <v>119</v>
+      </c>
       <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>30</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G87" t="s">
+        <v>119</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>99</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G89" t="s">
+        <v>119</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G91" t="s">
+        <v>119</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>39</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G93" t="s">
+        <v>119</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>110</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G95" t="s">
+        <v>132</v>
+      </c>
       <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>110</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G97" t="s">
+        <v>132</v>
+      </c>
       <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>110</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G99" t="s">
+        <v>132</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>110</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G101" t="s">
+        <v>132</v>
+      </c>
       <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>30</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>110</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G104" t="s">
+        <v>132</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>110</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G106" t="s">
+        <v>132</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>48</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>48</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>127</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G112" t="s">
+        <v>151</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>33</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>127</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G114" t="s">
+        <v>151</v>
+      </c>
       <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>127</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G116" t="s">
+        <v>151</v>
+      </c>
       <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>127</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G118" t="s">
+        <v>151</v>
+      </c>
       <c r="H118" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>33</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>127</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G120" t="s">
+        <v>151</v>
+      </c>
       <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>45</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>127</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G122" t="s">
+        <v>151</v>
+      </c>
       <c r="H122" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>45</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>127</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G124" t="s">
+        <v>151</v>
+      </c>
       <c r="H124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>45</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>127</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G126" t="s">
+        <v>151</v>
+      </c>
       <c r="H126" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>45</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>127</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G128" t="s">
+        <v>151</v>
+      </c>
       <c r="H128" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>127</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G131" t="s">
+        <v>151</v>
+      </c>
       <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>144</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G132" t="s">
+        <v>169</v>
+      </c>
       <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>30</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>144</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G134" t="s">
+        <v>169</v>
+      </c>
       <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>36</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>144</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G136" t="s">
+        <v>169</v>
+      </c>
       <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>150</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G137" t="s">
+        <v>177</v>
+      </c>
       <c r="H137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>150</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G139" t="s">
+        <v>177</v>
+      </c>
       <c r="H139" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I139" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>33</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>150</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G141" t="s">
+        <v>177</v>
+      </c>
       <c r="H141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I141" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>150</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G143" t="s">
+        <v>177</v>
+      </c>
       <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>36</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>150</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G145" t="s">
+        <v>177</v>
+      </c>
       <c r="H145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I145" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>39</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>150</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G147" t="s">
+        <v>177</v>
+      </c>
       <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I147" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>39</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>150</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G149" t="s">
+        <v>177</v>
+      </c>
       <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>39</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>150</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G151" t="s">
+        <v>177</v>
+      </c>
       <c r="H151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I151" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>42</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>150</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G153" t="s">
+        <v>177</v>
+      </c>
       <c r="H153" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I153" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>42</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>150</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G155" t="s">
+        <v>177</v>
+      </c>
       <c r="H155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I155" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>171</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G157" t="s">
+        <v>200</v>
+      </c>
       <c r="H157" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I157" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>42</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>171</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G159" t="s">
+        <v>200</v>
+      </c>
       <c r="H159" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I159" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>33</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>171</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G161" t="s">
+        <v>200</v>
+      </c>
       <c r="H161" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I161" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>171</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G163" t="s">
+        <v>200</v>
+      </c>
       <c r="H163" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I163" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>33</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>171</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G165" t="s">
+        <v>200</v>
+      </c>
       <c r="H165" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I165" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>33</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>171</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G167" t="s">
+        <v>200</v>
+      </c>
       <c r="H167" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I167" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>171</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G168" t="s">
+        <v>200</v>
+      </c>
       <c r="H168" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I168" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>42</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>171</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G170" t="s">
+        <v>200</v>
+      </c>
       <c r="H170" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I170" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>42</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>171</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G172" t="s">
+        <v>200</v>
+      </c>
       <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I172" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>189</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G174" t="s">
+        <v>220</v>
+      </c>
       <c r="H174" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I174" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>42</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>189</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G176" t="s">
+        <v>220</v>
+      </c>
       <c r="H176" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I176" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>33</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>189</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G178" t="s">
+        <v>220</v>
+      </c>
       <c r="H178" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I178" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>33</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>189</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G180" t="s">
+        <v>220</v>
+      </c>
       <c r="H180" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I180" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>33</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>189</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G182" t="s">
+        <v>220</v>
+      </c>
       <c r="H182" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I182" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>33</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>189</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G184" t="s">
+        <v>220</v>
+      </c>
       <c r="H184" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I184" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>33</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>189</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G186" t="s">
+        <v>220</v>
+      </c>
       <c r="H186" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I186" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>33</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>189</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G188" t="s">
+        <v>220</v>
+      </c>
       <c r="H188" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I188" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>33</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>189</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G190" t="s">
+        <v>220</v>
+      </c>
       <c r="H190" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I190" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>19</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G192" t="s">
+        <v>26</v>
+      </c>
       <c r="H192" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I192" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>42</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>26</v>
+      </c>
       <c r="H194" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I194" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>48</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>19</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
+        <v>26</v>
+      </c>
       <c r="H196" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I196" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>42</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>19</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>26</v>
+      </c>
       <c r="H198" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I198" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>216</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G200" t="s">
+        <v>249</v>
+      </c>
       <c r="H200" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I200" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>36</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>216</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G202" t="s">
+        <v>249</v>
+      </c>
       <c r="H202" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I202" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>36</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>216</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G204" t="s">
+        <v>249</v>
+      </c>
       <c r="H204" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I204" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>36</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>216</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G206" t="s">
+        <v>249</v>
+      </c>
       <c r="H206" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I206" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
-      </c>
-      <c r="G207" t="s"/>
-      <c r="H207" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>36</v>
+      </c>
+      <c r="H207" t="s"/>
+      <c r="I207" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>216</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G208" t="s">
+        <v>249</v>
+      </c>
       <c r="H208" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I208" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G209" t="s">
+        <v>36</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>216</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G210" t="s">
+        <v>249</v>
+      </c>
       <c r="H210" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I210" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" t="s"/>
-      <c r="H211" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>36</v>
+      </c>
+      <c r="H211" t="s"/>
+      <c r="I211" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>216</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G212" t="s">
+        <v>249</v>
+      </c>
       <c r="H212" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I212" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>11</v>
-      </c>
-      <c r="G213" t="s"/>
-      <c r="H213" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G213" t="s">
+        <v>36</v>
+      </c>
+      <c r="H213" t="s"/>
+      <c r="I213" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>216</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G214" t="s">
+        <v>249</v>
+      </c>
       <c r="H214" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I214" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" t="s"/>
-      <c r="H215" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G215" t="s">
+        <v>36</v>
+      </c>
+      <c r="H215" t="s"/>
+      <c r="I215" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>216</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G216" t="s">
+        <v>249</v>
+      </c>
       <c r="H216" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I216" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s"/>
-      <c r="H217" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>36</v>
+      </c>
+      <c r="H217" t="s"/>
+      <c r="I217" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>216</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G218" t="s">
+        <v>249</v>
+      </c>
       <c r="H218" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I218" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>11</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G219" t="s">
+        <v>39</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>216</v>
-      </c>
-      <c r="G220" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G220" t="s">
+        <v>249</v>
+      </c>
       <c r="H220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I220" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
-      </c>
-      <c r="G221" t="s"/>
-      <c r="H221" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>39</v>
+      </c>
+      <c r="H221" t="s"/>
+      <c r="I221" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>216</v>
-      </c>
-      <c r="G222" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G222" t="s">
+        <v>249</v>
+      </c>
       <c r="H222" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I222" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G223" t="s">
+        <v>39</v>
+      </c>
+      <c r="H223" t="s"/>
+      <c r="I223" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>216</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G224" t="s">
+        <v>249</v>
+      </c>
       <c r="H224" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I224" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>11</v>
-      </c>
-      <c r="G225" t="s"/>
-      <c r="H225" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G225" t="s">
+        <v>39</v>
+      </c>
+      <c r="H225" t="s"/>
+      <c r="I225" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>216</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G226" t="s">
+        <v>249</v>
+      </c>
       <c r="H226" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I226" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>11</v>
-      </c>
-      <c r="G227" t="s"/>
-      <c r="H227" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G227" t="s">
+        <v>39</v>
+      </c>
+      <c r="H227" t="s"/>
+      <c r="I227" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>216</v>
-      </c>
-      <c r="G228" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G228" t="s">
+        <v>249</v>
+      </c>
       <c r="H228" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I228" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>11</v>
-      </c>
-      <c r="G229" t="s"/>
-      <c r="H229" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G229" t="s">
+        <v>39</v>
+      </c>
+      <c r="H229" t="s"/>
+      <c r="I229" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>216</v>
-      </c>
-      <c r="G230" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G230" t="s">
+        <v>249</v>
+      </c>
       <c r="H230" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I230" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
-      </c>
-      <c r="G231" t="s"/>
-      <c r="H231" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G231" t="s">
+        <v>39</v>
+      </c>
+      <c r="H231" t="s"/>
+      <c r="I231" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>216</v>
-      </c>
-      <c r="G232" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="G232" t="s">
+        <v>249</v>
+      </c>
       <c r="H232" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I232" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>11</v>
-      </c>
-      <c r="G233" t="s"/>
-      <c r="H233" t="s">
-        <v>237</v>
+        <v>12</v>
+      </c>
+      <c r="G233" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" t="s"/>
+      <c r="I233" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95507.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95507.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>412189</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>McNerney</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
   </si>
   <si>
     <t>400308</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>Pallone</t>
@@ -1178,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I233"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1186,7 +1195,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,6467 +1220,6900 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>33</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>48</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G75" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I77" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>39</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>42</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G79" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>42</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G81" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G83" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G85" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>30</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G87" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I87" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>30</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>42</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>45</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G91" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>39</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>42</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G93" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G95" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I95" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>33</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>36</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G97" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I97" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>33</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>36</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G99" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I99" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>33</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>36</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G101" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I101" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>30</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>33</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G104" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I104" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>30</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G106" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I106" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>48</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>51</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>48</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>51</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G112" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="I112" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>33</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>36</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G114" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="H114" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="I114" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>33</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>36</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G116" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="H116" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="I116" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>33</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>36</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G118" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="I118" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>33</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>36</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G120" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="H120" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="I120" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s">
-        <v>45</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>48</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G122" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="I122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>45</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>48</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G124" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="H124" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="I124" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>45</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>48</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G126" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="H126" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="I126" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" t="s">
-        <v>45</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>48</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G128" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="H128" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="I128" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" t="s">
-        <v>45</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>48</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G131" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="I131" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G132" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="H132" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I132" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J132" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" t="s">
-        <v>30</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>33</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G134" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="H134" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I134" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" t="s">
-        <v>36</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>39</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G136" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="H136" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I136" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J136" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G137" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="H137" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I137" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J137" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" t="s">
-        <v>33</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>36</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G139" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I139" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>33</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>36</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G141" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="H141" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I141" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J141" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" t="s">
-        <v>33</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>36</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G143" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="H143" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I143" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J143" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" t="s">
-        <v>36</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>39</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G145" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" t="s">
-        <v>39</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>42</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G147" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I147" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J147" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" t="s">
-        <v>39</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>42</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G149" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="H149" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I149" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J149" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" t="s">
-        <v>39</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>42</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G151" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="H151" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I151" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J151" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" t="s">
-        <v>42</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>45</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G153" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I153" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J153" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" t="s">
-        <v>42</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>45</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G155" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="H155" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I155" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J155" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" t="s">
-        <v>13</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G157" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="H157" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I157" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J157" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" t="s">
-        <v>42</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>45</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G159" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="H159" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I159" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" t="s">
-        <v>33</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>36</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G161" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="H161" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I161" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J161" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" t="s">
-        <v>33</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>36</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G163" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="H163" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I163" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J163" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" t="s">
-        <v>33</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>36</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G165" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="H165" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I165" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J165" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" t="s">
-        <v>33</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>36</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G167" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="H167" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I167" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J167" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G168" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="H168" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I168" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J168" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" t="s">
-        <v>42</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>45</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G170" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="H170" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I170" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J170" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" t="s">
-        <v>42</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>45</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G172" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="H172" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I172" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J172" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G174" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="H174" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I174" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J174" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
-      </c>
-      <c r="G175" t="s">
-        <v>42</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>45</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G176" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="H176" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I176" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" t="s">
-        <v>33</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>36</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G178" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="H178" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I178" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J178" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" t="s">
-        <v>33</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>36</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G180" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="H180" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I180" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J180" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
-      </c>
-      <c r="G181" t="s">
-        <v>33</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>36</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G182" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="H182" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I182" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J182" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183" t="s">
-        <v>33</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>36</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G184" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="H184" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I184" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J184" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" t="s">
-        <v>33</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>36</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G186" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="H186" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I186" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J186" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187" t="s">
-        <v>33</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>36</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G188" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="H188" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I188" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J188" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" t="s">
-        <v>33</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>36</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G190" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="H190" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I190" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J190" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" t="s">
-        <v>13</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G192" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H192" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I192" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J192" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" t="s">
-        <v>42</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>45</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G194" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H194" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I194" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J194" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" t="s">
-        <v>48</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>51</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G196" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H196" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I196" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J196" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" t="s">
-        <v>42</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>45</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G198" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H198" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I198" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J198" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
-      </c>
-      <c r="G199" t="s">
-        <v>13</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G200" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H200" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I200" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>253</v>
+      </c>
+      <c r="J200" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
-      </c>
-      <c r="G201" t="s">
-        <v>36</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
+        <v>39</v>
+      </c>
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G202" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H202" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I202" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="J202" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" t="s">
-        <v>36</v>
-      </c>
-      <c r="H203" t="s"/>
-      <c r="I203" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
+        <v>39</v>
+      </c>
+      <c r="I203" t="s"/>
+      <c r="J203" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G204" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H204" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I204" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="J204" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
-      </c>
-      <c r="G205" t="s">
-        <v>36</v>
-      </c>
-      <c r="H205" t="s"/>
-      <c r="I205" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G205" t="s"/>
+      <c r="H205" t="s">
+        <v>39</v>
+      </c>
+      <c r="I205" t="s"/>
+      <c r="J205" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G206" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H206" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I206" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="J206" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" t="s">
-        <v>36</v>
-      </c>
-      <c r="H207" t="s"/>
-      <c r="I207" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G207" t="s"/>
+      <c r="H207" t="s">
+        <v>39</v>
+      </c>
+      <c r="I207" t="s"/>
+      <c r="J207" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G208" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H208" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I208" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="J208" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" t="s">
-        <v>36</v>
-      </c>
-      <c r="H209" t="s"/>
-      <c r="I209" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G209" t="s"/>
+      <c r="H209" t="s">
+        <v>39</v>
+      </c>
+      <c r="I209" t="s"/>
+      <c r="J209" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G210" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H210" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I210" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="J210" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" t="s">
-        <v>36</v>
-      </c>
-      <c r="H211" t="s"/>
-      <c r="I211" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G211" t="s"/>
+      <c r="H211" t="s">
+        <v>39</v>
+      </c>
+      <c r="I211" t="s"/>
+      <c r="J211" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G212" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H212" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I212" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="J212" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" t="s">
-        <v>36</v>
-      </c>
-      <c r="H213" t="s"/>
-      <c r="I213" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G213" t="s"/>
+      <c r="H213" t="s">
+        <v>39</v>
+      </c>
+      <c r="I213" t="s"/>
+      <c r="J213" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G214" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H214" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I214" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="215" spans="1:9">
+      <c r="J214" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
-      </c>
-      <c r="G215" t="s">
-        <v>36</v>
-      </c>
-      <c r="H215" t="s"/>
-      <c r="I215" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G215" t="s"/>
+      <c r="H215" t="s">
+        <v>39</v>
+      </c>
+      <c r="I215" t="s"/>
+      <c r="J215" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G216" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H216" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I216" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="J216" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
-      </c>
-      <c r="G217" t="s">
-        <v>36</v>
-      </c>
-      <c r="H217" t="s"/>
-      <c r="I217" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G217" t="s"/>
+      <c r="H217" t="s">
+        <v>39</v>
+      </c>
+      <c r="I217" t="s"/>
+      <c r="J217" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G218" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H218" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I218" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>253</v>
+      </c>
+      <c r="J218" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
-      </c>
-      <c r="G219" t="s">
-        <v>39</v>
-      </c>
-      <c r="H219" t="s"/>
-      <c r="I219" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G219" t="s"/>
+      <c r="H219" t="s">
+        <v>42</v>
+      </c>
+      <c r="I219" t="s"/>
+      <c r="J219" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F220" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G220" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H220" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I220" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="J220" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
-      </c>
-      <c r="G221" t="s">
-        <v>39</v>
-      </c>
-      <c r="H221" t="s"/>
-      <c r="I221" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G221" t="s"/>
+      <c r="H221" t="s">
+        <v>42</v>
+      </c>
+      <c r="I221" t="s"/>
+      <c r="J221" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G222" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H222" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I222" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="223" spans="1:9">
+      <c r="J222" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F223" t="s">
-        <v>12</v>
-      </c>
-      <c r="G223" t="s">
-        <v>39</v>
-      </c>
-      <c r="H223" t="s"/>
-      <c r="I223" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G223" t="s"/>
+      <c r="H223" t="s">
+        <v>42</v>
+      </c>
+      <c r="I223" t="s"/>
+      <c r="J223" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F224" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G224" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H224" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I224" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="225" spans="1:9">
+      <c r="J224" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E225" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F225" t="s">
-        <v>12</v>
-      </c>
-      <c r="G225" t="s">
-        <v>39</v>
-      </c>
-      <c r="H225" t="s"/>
-      <c r="I225" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G225" t="s"/>
+      <c r="H225" t="s">
+        <v>42</v>
+      </c>
+      <c r="I225" t="s"/>
+      <c r="J225" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E226" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F226" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G226" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H226" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I226" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="227" spans="1:9">
+      <c r="J226" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E227" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F227" t="s">
-        <v>12</v>
-      </c>
-      <c r="G227" t="s">
-        <v>39</v>
-      </c>
-      <c r="H227" t="s"/>
-      <c r="I227" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G227" t="s"/>
+      <c r="H227" t="s">
+        <v>42</v>
+      </c>
+      <c r="I227" t="s"/>
+      <c r="J227" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E228" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F228" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G228" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H228" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I228" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="229" spans="1:9">
+      <c r="J228" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E229" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F229" t="s">
-        <v>12</v>
-      </c>
-      <c r="G229" t="s">
-        <v>39</v>
-      </c>
-      <c r="H229" t="s"/>
-      <c r="I229" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G229" t="s"/>
+      <c r="H229" t="s">
+        <v>42</v>
+      </c>
+      <c r="I229" t="s"/>
+      <c r="J229" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E230" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F230" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G230" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H230" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I230" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="231" spans="1:9">
+      <c r="J230" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E231" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F231" t="s">
-        <v>12</v>
-      </c>
-      <c r="G231" t="s">
-        <v>39</v>
-      </c>
-      <c r="H231" t="s"/>
-      <c r="I231" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G231" t="s"/>
+      <c r="H231" t="s">
+        <v>42</v>
+      </c>
+      <c r="I231" t="s"/>
+      <c r="J231" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E232" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F232" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G232" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="H232" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I232" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>253</v>
+      </c>
+      <c r="J232" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E233" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F233" t="s">
-        <v>12</v>
-      </c>
-      <c r="G233" t="s">
-        <v>13</v>
-      </c>
-      <c r="H233" t="s"/>
-      <c r="I233" t="s">
-        <v>271</v>
+        <v>13</v>
+      </c>
+      <c r="G233" t="s"/>
+      <c r="H233" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233" t="s"/>
+      <c r="J233" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
